--- a/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_16_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_16_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-394678.5524867782</v>
+        <v>-395419.0153075016</v>
       </c>
     </row>
     <row r="7">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>251.017240630768</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>233.556290738295</v>
@@ -1379,16 +1379,16 @@
         <v>250.2137690395492</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>29.36210141605946</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>202.6210018711096</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>59.42064602642682</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,13 +1421,13 @@
         <v>65.87283976874616</v>
       </c>
       <c r="T11" t="n">
-        <v>56.0436220309892</v>
+        <v>89.18341408247076</v>
       </c>
       <c r="U11" t="n">
         <v>119.5889224048976</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>196.0356574374223</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>238.0144996457565</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>254.521337623341</v>
       </c>
     </row>
     <row r="12">
@@ -1452,16 +1452,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>15.72846453192619</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>13.35261136067132</v>
       </c>
       <c r="G12" t="n">
-        <v>137.0751276698277</v>
+        <v>121.3081374934057</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1494,25 +1494,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>166.6979539789397</v>
+        <v>34.98135294622711</v>
       </c>
       <c r="T12" t="n">
-        <v>99.82179789167826</v>
+        <v>67.36632966027165</v>
       </c>
       <c r="U12" t="n">
         <v>94.20712384475023</v>
       </c>
       <c r="V12" t="n">
-        <v>101.0839861167127</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>119.978382128207</v>
       </c>
       <c r="X12" t="n">
-        <v>74.05638417076491</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>73.9660947445918</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>251.0172406307679</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>222.9664405879703</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>275.1594447089989</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>283.0845181045931</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>202.6210018711095</v>
       </c>
       <c r="I14" t="n">
-        <v>59.42064602642682</v>
+        <v>59.42064602642675</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>65.87283976874616</v>
+        <v>65.87283976874609</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>89.18341408247068</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>119.5889224048975</v>
       </c>
       <c r="V14" t="n">
-        <v>196.0356574374223</v>
+        <v>10.1394594536923</v>
       </c>
       <c r="W14" t="n">
-        <v>104.2398888412529</v>
+        <v>217.5243676847004</v>
       </c>
       <c r="X14" t="n">
-        <v>238.0144996457565</v>
+        <v>238.0144996457564</v>
       </c>
       <c r="Y14" t="n">
-        <v>254.521337623341</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,22 +1683,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>34.81658261715469</v>
       </c>
       <c r="C15" t="n">
-        <v>40.99189795560318</v>
+        <v>40.99189795560309</v>
       </c>
       <c r="D15" t="n">
-        <v>15.72846453192619</v>
+        <v>15.72846453192611</v>
       </c>
       <c r="E15" t="n">
-        <v>25.92847942268838</v>
+        <v>25.9284794226883</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>13.35261136067123</v>
       </c>
       <c r="G15" t="n">
-        <v>37.81399486852167</v>
+        <v>5.358526637115043</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1734,22 +1734,22 @@
         <v>83.4941426248844</v>
       </c>
       <c r="S15" t="n">
-        <v>34.98135294622711</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T15" t="n">
-        <v>67.36632966027165</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9237248774628</v>
+        <v>94.20712384475014</v>
       </c>
       <c r="V15" t="n">
-        <v>101.0839861167127</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>119.978382128207</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>106.5118524021719</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>48.11537914922474</v>
+        <v>48.11537914922465</v>
       </c>
       <c r="C16" t="n">
-        <v>35.53022006591527</v>
+        <v>35.53022006591519</v>
       </c>
       <c r="D16" t="n">
-        <v>16.8988719854998</v>
+        <v>16.89887198549971</v>
       </c>
       <c r="E16" t="n">
-        <v>14.71736161385661</v>
+        <v>14.71736161385653</v>
       </c>
       <c r="F16" t="n">
-        <v>13.70444699021868</v>
+        <v>13.7044469902186</v>
       </c>
       <c r="G16" t="n">
-        <v>36.04936959028134</v>
+        <v>36.04936959028126</v>
       </c>
       <c r="H16" t="n">
-        <v>28.51003926304861</v>
+        <v>28.51003926304852</v>
       </c>
       <c r="I16" t="n">
-        <v>16.96724755893</v>
+        <v>16.96724755892992</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>35.4595793843737</v>
+        <v>35.45957938437361</v>
       </c>
       <c r="S16" t="n">
-        <v>88.37870840529496</v>
+        <v>88.37870840529489</v>
       </c>
       <c r="T16" t="n">
-        <v>95.26758743494639</v>
+        <v>95.26758743494631</v>
       </c>
       <c r="U16" t="n">
-        <v>154.5901551200257</v>
+        <v>154.5901551200256</v>
       </c>
       <c r="V16" t="n">
         <v>120.4210422911154</v>
@@ -1828,10 +1828,10 @@
         <v>154.8063973038784</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99305435632459</v>
+        <v>93.99305435632451</v>
       </c>
       <c r="Y16" t="n">
-        <v>86.86805231938223</v>
+        <v>86.86805231938214</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>145.3543524373626</v>
+        <v>145.3543524373627</v>
       </c>
       <c r="C17" t="n">
-        <v>127.8934025448896</v>
+        <v>127.8934025448897</v>
       </c>
       <c r="D17" t="n">
-        <v>117.303552394565</v>
+        <v>117.3035523945651</v>
       </c>
       <c r="E17" t="n">
-        <v>144.5508808461438</v>
+        <v>144.5508808461439</v>
       </c>
       <c r="F17" t="n">
         <v>169.4965565155935</v>
       </c>
       <c r="G17" t="n">
-        <v>177.4216299111877</v>
+        <v>177.4216299111878</v>
       </c>
       <c r="H17" t="n">
-        <v>96.95811367770423</v>
+        <v>96.95811367770429</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,10 +1898,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>13.92603421149219</v>
+        <v>13.92603421149224</v>
       </c>
       <c r="V17" t="n">
-        <v>90.37276924401695</v>
+        <v>90.37276924401701</v>
       </c>
       <c r="W17" t="n">
         <v>111.8614794912951</v>
@@ -1910,7 +1910,7 @@
         <v>132.3516114523511</v>
       </c>
       <c r="Y17" t="n">
-        <v>148.8584494299364</v>
+        <v>148.8584494299357</v>
       </c>
     </row>
     <row r="18">
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1935,13 +1935,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1977,13 +1977,13 @@
         <v>199.0829306929842</v>
       </c>
       <c r="U18" t="n">
-        <v>126.9830402686343</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>49.9448915035225</v>
       </c>
       <c r="W18" t="n">
-        <v>14.31549393480165</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2050,19 +2050,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>13.18606330980467</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>48.92726692662031</v>
+        <v>48.92726692662036</v>
       </c>
       <c r="V19" t="n">
-        <v>14.75815409771005</v>
+        <v>195.1910385061425</v>
       </c>
       <c r="W19" t="n">
-        <v>49.14350911047305</v>
+        <v>49.1435091104731</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>145.3543524373626</v>
+        <v>145.3543524373627</v>
       </c>
       <c r="C20" t="n">
-        <v>127.8934025448896</v>
+        <v>127.8934025448897</v>
       </c>
       <c r="D20" t="n">
-        <v>117.303552394565</v>
+        <v>117.3035523945651</v>
       </c>
       <c r="E20" t="n">
-        <v>144.5508808461438</v>
+        <v>144.5508808461439</v>
       </c>
       <c r="F20" t="n">
         <v>169.4965565155935</v>
       </c>
       <c r="G20" t="n">
-        <v>177.4216299111877</v>
+        <v>177.4216299111878</v>
       </c>
       <c r="H20" t="n">
-        <v>96.95811367770423</v>
+        <v>96.95811367770429</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,10 +2135,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>13.92603421149219</v>
+        <v>13.92603421149225</v>
       </c>
       <c r="V20" t="n">
-        <v>90.37276924401695</v>
+        <v>90.37276924401701</v>
       </c>
       <c r="W20" t="n">
         <v>111.8614794912951</v>
@@ -2147,7 +2147,7 @@
         <v>132.3516114523511</v>
       </c>
       <c r="Y20" t="n">
-        <v>148.8584494299356</v>
+        <v>148.8584494299357</v>
       </c>
     </row>
     <row r="21">
@@ -2163,22 +2163,22 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>33.19693802621276</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,10 +2208,10 @@
         <v>83.4941426248844</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T21" t="n">
-        <v>92.56914445514251</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2226,7 +2226,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>77.45106251930777</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2281,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>67.32062995745122</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2290,22 +2290,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>35.66119193167356</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>48.92726692662031</v>
+        <v>48.92726692662036</v>
       </c>
       <c r="V22" t="n">
-        <v>14.75815409771005</v>
+        <v>14.7581540977101</v>
       </c>
       <c r="W22" t="n">
-        <v>49.14350911047305</v>
+        <v>49.1435091104731</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>0.6009042264950357</v>
       </c>
     </row>
     <row r="23">
@@ -2372,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>13.92603421149225</v>
+        <v>13.92603421149224</v>
       </c>
       <c r="V23" t="n">
         <v>90.37276924401701</v>
@@ -2397,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2412,10 +2412,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>80.15602968011626</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2451,19 +2451,19 @@
         <v>199.0829306929842</v>
       </c>
       <c r="U24" t="n">
-        <v>174.1237442769828</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>143.9460106836063</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>180.4328844084324</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2536,7 +2536,7 @@
         <v>14.7581540977101</v>
       </c>
       <c r="W25" t="n">
-        <v>229.5763935189054</v>
+        <v>49.1435091104731</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2564,16 +2564,16 @@
         <v>231.8863097938097</v>
       </c>
       <c r="F26" t="n">
-        <v>256.8319854632593</v>
+        <v>256.8319854632594</v>
       </c>
       <c r="G26" t="n">
-        <v>264.7570588588536</v>
+        <v>264.7570588588537</v>
       </c>
       <c r="H26" t="n">
-        <v>184.2935426253701</v>
+        <v>184.2935426253702</v>
       </c>
       <c r="I26" t="n">
-        <v>41.09318678068729</v>
+        <v>41.09318678068735</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>47.54538052300663</v>
+        <v>47.5453805230067</v>
       </c>
       <c r="T26" t="n">
-        <v>70.85595483673123</v>
+        <v>70.85595483673129</v>
       </c>
       <c r="U26" t="n">
-        <v>101.261463159158</v>
+        <v>101.2614631591581</v>
       </c>
       <c r="V26" t="n">
-        <v>177.7081981916828</v>
+        <v>177.7081981916829</v>
       </c>
       <c r="W26" t="n">
-        <v>199.1969084389609</v>
+        <v>199.196908438961</v>
       </c>
       <c r="X26" t="n">
-        <v>219.6870404000169</v>
+        <v>219.687040400017</v>
       </c>
       <c r="Y26" t="n">
         <v>236.1938783776015</v>
@@ -2631,10 +2631,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>16.48912337141525</v>
+        <v>52.42629584589793</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>22.6644387098637</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -2643,13 +2643,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2679,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S27" t="n">
-        <v>100.6593631674006</v>
+        <v>16.65389370048764</v>
       </c>
       <c r="T27" t="n">
         <v>199.0829306929842</v>
@@ -2697,7 +2697,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>55.72892492502538</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>29.7879199034852</v>
+        <v>29.78791990348526</v>
       </c>
       <c r="C28" t="n">
-        <v>17.20276082017574</v>
+        <v>17.2027608201758</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>17.72191034454181</v>
+        <v>17.72191034454187</v>
       </c>
       <c r="H28" t="n">
-        <v>10.18258001730907</v>
+        <v>10.18258001730913</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>17.13212013863416</v>
+        <v>17.13212013863422</v>
       </c>
       <c r="S28" t="n">
-        <v>70.05124915955543</v>
+        <v>70.0512491595555</v>
       </c>
       <c r="T28" t="n">
-        <v>76.94012818920686</v>
+        <v>76.94012818920692</v>
       </c>
       <c r="U28" t="n">
         <v>136.2626958742862</v>
       </c>
       <c r="V28" t="n">
-        <v>102.0935830453759</v>
+        <v>102.093583045376</v>
       </c>
       <c r="W28" t="n">
-        <v>136.4789380581389</v>
+        <v>136.478938058139</v>
       </c>
       <c r="X28" t="n">
-        <v>75.66559511058506</v>
+        <v>75.66559511058512</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.5405930736427</v>
+        <v>68.54059307364275</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>232.6897813850285</v>
+        <v>232.6897813850286</v>
       </c>
       <c r="C29" t="n">
         <v>215.2288314925555</v>
@@ -2798,10 +2798,10 @@
         <v>204.6389813422309</v>
       </c>
       <c r="E29" t="n">
-        <v>231.8863097938097</v>
+        <v>231.8863097938098</v>
       </c>
       <c r="F29" t="n">
-        <v>256.8319854632594</v>
+        <v>256.8319854632595</v>
       </c>
       <c r="G29" t="n">
         <v>264.7570588588537</v>
@@ -2810,7 +2810,7 @@
         <v>184.2935426253702</v>
       </c>
       <c r="I29" t="n">
-        <v>41.09318678068735</v>
+        <v>41.09318678068739</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>47.54538052300669</v>
+        <v>47.54538052300673</v>
       </c>
       <c r="T29" t="n">
-        <v>70.85595483673129</v>
+        <v>70.85595483673131</v>
       </c>
       <c r="U29" t="n">
         <v>101.2614631591581</v>
@@ -2858,7 +2858,7 @@
         <v>219.687040400017</v>
       </c>
       <c r="Y29" t="n">
-        <v>236.1938783776015</v>
+        <v>236.1938783776016</v>
       </c>
     </row>
     <row r="30">
@@ -2868,7 +2868,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>16.4891233714153</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -2877,10 +2877,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>7.601020176948936</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2916,22 +2916,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S30" t="n">
-        <v>16.65389370048764</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T30" t="n">
-        <v>133.0443398814447</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U30" t="n">
         <v>225.9237248774628</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>228.3370661063854</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>101.6509228824676</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>29.78791990348526</v>
+        <v>29.78791990348529</v>
       </c>
       <c r="C31" t="n">
-        <v>17.2027608201758</v>
+        <v>17.20276082017583</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>17.72191034454187</v>
+        <v>17.7219103445419</v>
       </c>
       <c r="H31" t="n">
-        <v>10.18258001730913</v>
+        <v>10.18258001730916</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>17.13212013863422</v>
+        <v>17.13212013863425</v>
       </c>
       <c r="S31" t="n">
-        <v>70.05124915955548</v>
+        <v>70.05124915955552</v>
       </c>
       <c r="T31" t="n">
-        <v>76.94012818920692</v>
+        <v>76.94012818920694</v>
       </c>
       <c r="U31" t="n">
         <v>136.2626958742862</v>
@@ -3013,10 +3013,10 @@
         <v>136.478938058139</v>
       </c>
       <c r="X31" t="n">
-        <v>75.66559511058512</v>
+        <v>75.66559511058514</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.54059307364275</v>
+        <v>68.54059307364278</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>232.6897813850285</v>
+        <v>232.6897813850286</v>
       </c>
       <c r="C32" t="n">
         <v>215.2288314925555</v>
@@ -3035,10 +3035,10 @@
         <v>204.6389813422309</v>
       </c>
       <c r="E32" t="n">
-        <v>231.8863097938097</v>
+        <v>231.8863097938098</v>
       </c>
       <c r="F32" t="n">
-        <v>256.8319854632594</v>
+        <v>256.8319854632595</v>
       </c>
       <c r="G32" t="n">
         <v>264.7570588588537</v>
@@ -3047,7 +3047,7 @@
         <v>184.2935426253702</v>
       </c>
       <c r="I32" t="n">
-        <v>41.09318678068735</v>
+        <v>41.09318678068738</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>47.54538052300668</v>
+        <v>47.54538052300671</v>
       </c>
       <c r="T32" t="n">
-        <v>70.85595483673129</v>
+        <v>70.85595483673131</v>
       </c>
       <c r="U32" t="n">
         <v>101.2614631591581</v>
@@ -3095,7 +3095,7 @@
         <v>219.687040400017</v>
       </c>
       <c r="Y32" t="n">
-        <v>236.1938783776015</v>
+        <v>236.1938783776016</v>
       </c>
     </row>
     <row r="33">
@@ -3108,16 +3108,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>22.66443870986373</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>7.601020176948936</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3153,16 +3153,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S33" t="n">
-        <v>16.65389370048764</v>
+        <v>162.2344329358998</v>
       </c>
       <c r="T33" t="n">
-        <v>133.0443398814447</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U33" t="n">
-        <v>75.87966459901075</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>29.78791990348526</v>
+        <v>29.78791990348529</v>
       </c>
       <c r="C34" t="n">
-        <v>17.2027608201758</v>
+        <v>17.20276082017583</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>17.72191034454187</v>
+        <v>17.7219103445419</v>
       </c>
       <c r="H34" t="n">
-        <v>10.18258001730913</v>
+        <v>10.18258001730916</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>17.13212013863422</v>
+        <v>17.13212013863425</v>
       </c>
       <c r="S34" t="n">
-        <v>70.05124915955548</v>
+        <v>70.05124915955552</v>
       </c>
       <c r="T34" t="n">
-        <v>76.94012818920692</v>
+        <v>76.94012818920694</v>
       </c>
       <c r="U34" t="n">
         <v>136.2626958742862</v>
@@ -3250,10 +3250,10 @@
         <v>136.478938058139</v>
       </c>
       <c r="X34" t="n">
-        <v>75.66559511058512</v>
+        <v>75.66559511058514</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.54059307364275</v>
+        <v>68.54059307364278</v>
       </c>
     </row>
     <row r="35">
@@ -3345,10 +3345,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -3357,7 +3357,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>23.79712696322987</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3402,13 +3402,13 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>13.15000792146933</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>145.3543524373626</v>
+        <v>145.3543524373627</v>
       </c>
       <c r="C38" t="n">
-        <v>127.8934025448896</v>
+        <v>127.8934025448897</v>
       </c>
       <c r="D38" t="n">
-        <v>117.303552394565</v>
+        <v>117.3035523945651</v>
       </c>
       <c r="E38" t="n">
-        <v>144.5508808461438</v>
+        <v>144.5508808461439</v>
       </c>
       <c r="F38" t="n">
         <v>169.4965565155935</v>
       </c>
       <c r="G38" t="n">
-        <v>177.4216299111877</v>
+        <v>177.4216299111878</v>
       </c>
       <c r="H38" t="n">
-        <v>96.95811367770423</v>
+        <v>96.95811367770429</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,10 +3557,10 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>13.92603421149219</v>
+        <v>13.92603421149225</v>
       </c>
       <c r="V38" t="n">
-        <v>90.37276924401695</v>
+        <v>90.37276924401701</v>
       </c>
       <c r="W38" t="n">
         <v>111.8614794912951</v>
@@ -3569,7 +3569,7 @@
         <v>132.3516114523511</v>
       </c>
       <c r="Y38" t="n">
-        <v>148.8584494299356</v>
+        <v>148.8584494299357</v>
       </c>
     </row>
     <row r="39">
@@ -3579,22 +3579,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>20.42185760344481</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3639,7 +3639,7 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>23.79712696322996</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -3664,7 +3664,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>12.66691378543861</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.7659706229939</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>48.92726692662031</v>
+        <v>48.92726692662036</v>
       </c>
       <c r="V40" t="n">
-        <v>14.75815409771005</v>
+        <v>195.1910385061424</v>
       </c>
       <c r="W40" t="n">
-        <v>49.14350911047305</v>
+        <v>49.1435091104731</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3740,10 +3740,10 @@
         <v>161.8338265482973</v>
       </c>
       <c r="C41" t="n">
-        <v>144.3728766558243</v>
+        <v>144.3728766558242</v>
       </c>
       <c r="D41" t="n">
-        <v>133.7830265054997</v>
+        <v>133.7830265054996</v>
       </c>
       <c r="E41" t="n">
         <v>161.0303549570785</v>
@@ -3794,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>30.40550832242685</v>
+        <v>30.40550832242681</v>
       </c>
       <c r="V41" t="n">
         <v>106.8522433549516</v>
@@ -3822,7 +3822,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>137.7713500316994</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -3867,25 +3867,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>5.543603804939432</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>199.0829306929842</v>
       </c>
       <c r="U42" t="n">
-        <v>5.023709762279489</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V42" t="n">
-        <v>11.90057203424197</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>30.79496804573628</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3940,7 +3940,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>67.32062995745123</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3949,19 +3949,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>126.1848218017748</v>
+        <v>6.084173352475625</v>
       </c>
       <c r="U43" t="n">
-        <v>65.40674103755497</v>
+        <v>65.40674103755494</v>
       </c>
       <c r="V43" t="n">
-        <v>31.23762820864471</v>
+        <v>84.01764670049265</v>
       </c>
       <c r="W43" t="n">
-        <v>65.62298322140771</v>
+        <v>65.62298322140768</v>
       </c>
       <c r="X43" t="n">
-        <v>4.809640273853859</v>
+        <v>4.80964027385383</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3977,16 +3977,16 @@
         <v>161.8338265482973</v>
       </c>
       <c r="C44" t="n">
-        <v>144.3728766558242</v>
+        <v>144.3728766558243</v>
       </c>
       <c r="D44" t="n">
-        <v>133.7830265054996</v>
+        <v>133.7830265054997</v>
       </c>
       <c r="E44" t="n">
         <v>161.0303549570785</v>
       </c>
       <c r="F44" t="n">
-        <v>185.9760306265281</v>
+        <v>185.9760306265282</v>
       </c>
       <c r="G44" t="n">
         <v>193.9011040221224</v>
@@ -4031,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>30.40550832242681</v>
+        <v>30.40550832242688</v>
       </c>
       <c r="V44" t="n">
         <v>106.8522433549516</v>
@@ -4040,7 +4040,7 @@
         <v>128.3409536022297</v>
       </c>
       <c r="X44" t="n">
-        <v>148.8310855632857</v>
+        <v>148.8310855632858</v>
       </c>
       <c r="Y44" t="n">
         <v>165.3379235408703</v>
@@ -4056,19 +4056,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>65.7306752900587</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4101,28 +4101,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>83.4941426248844</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>199.0829306929842</v>
       </c>
       <c r="U45" t="n">
-        <v>5.02370976227946</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V45" t="n">
-        <v>216.5271065321654</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4186,19 +4186,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>126.1848218017749</v>
+        <v>6.084173352475681</v>
       </c>
       <c r="U46" t="n">
-        <v>65.40674103755494</v>
+        <v>65.40674103755499</v>
       </c>
       <c r="V46" t="n">
-        <v>31.23762820864468</v>
+        <v>31.23762820864474</v>
       </c>
       <c r="W46" t="n">
-        <v>65.62298322140768</v>
+        <v>185.7236316707067</v>
       </c>
       <c r="X46" t="n">
-        <v>4.80964027385383</v>
+        <v>4.809640273853887</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5015,31 +5015,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>783.7790663419954</v>
+        <v>548.7492214112104</v>
       </c>
       <c r="C11" t="n">
-        <v>547.8636211517984</v>
+        <v>312.8337762210135</v>
       </c>
       <c r="D11" t="n">
-        <v>547.8636211517984</v>
+        <v>312.8337762210135</v>
       </c>
       <c r="E11" t="n">
-        <v>295.1224403037688</v>
+        <v>60.09259537298395</v>
       </c>
       <c r="F11" t="n">
-        <v>295.1224403037688</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="G11" t="n">
-        <v>295.1224403037688</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="H11" t="n">
-        <v>90.4547616460823</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I11" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="J11" t="n">
-        <v>60.75260108020962</v>
+        <v>60.75260108020956</v>
       </c>
       <c r="K11" t="n">
         <v>226.9372683326557</v>
@@ -5054,10 +5054,10 @@
         <v>1084.019791121359</v>
       </c>
       <c r="O11" t="n">
-        <v>1316.88662418693</v>
+        <v>1316.886624186929</v>
       </c>
       <c r="P11" t="n">
-        <v>1477.958695736267</v>
+        <v>1477.958695736266</v>
       </c>
       <c r="Q11" t="n">
         <v>1521.6953536967</v>
@@ -5069,22 +5069,22 @@
         <v>1455.157131708067</v>
       </c>
       <c r="T11" t="n">
-        <v>1398.547412484846</v>
+        <v>1365.072875059107</v>
       </c>
       <c r="U11" t="n">
-        <v>1277.750521166768</v>
+        <v>1244.275983741029</v>
       </c>
       <c r="V11" t="n">
-        <v>1277.750521166768</v>
+        <v>1046.260168147673</v>
       </c>
       <c r="W11" t="n">
-        <v>1277.750521166768</v>
+        <v>1046.260168147673</v>
       </c>
       <c r="X11" t="n">
-        <v>1037.331834655902</v>
+        <v>805.8414816368074</v>
       </c>
       <c r="Y11" t="n">
-        <v>1037.331834655902</v>
+        <v>548.7492214112104</v>
       </c>
     </row>
     <row r="12">
@@ -5094,43 +5094,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>665.006012163686</v>
+        <v>649.0797594602294</v>
       </c>
       <c r="C12" t="n">
-        <v>490.552982882559</v>
+        <v>474.6267301791024</v>
       </c>
       <c r="D12" t="n">
-        <v>474.6656449715224</v>
+        <v>325.6923205178512</v>
       </c>
       <c r="E12" t="n">
-        <v>315.4281899660669</v>
+        <v>166.4548655123957</v>
       </c>
       <c r="F12" t="n">
-        <v>168.8936319929519</v>
+        <v>152.9673792894953</v>
       </c>
       <c r="G12" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="H12" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I12" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="J12" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="K12" t="n">
-        <v>198.6970944041448</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="L12" t="n">
-        <v>486.3521110234744</v>
+        <v>318.0889236932636</v>
       </c>
       <c r="M12" t="n">
-        <v>862.9717110634076</v>
+        <v>496.410980281168</v>
       </c>
       <c r="N12" t="n">
-        <v>873.0305803211014</v>
+        <v>873.0305803211012</v>
       </c>
       <c r="O12" t="n">
         <v>1185.002115453613</v>
@@ -5142,28 +5142,28 @@
         <v>1521.6953536967</v>
       </c>
       <c r="R12" t="n">
-        <v>1437.357835893786</v>
+        <v>1521.6953536967</v>
       </c>
       <c r="S12" t="n">
-        <v>1268.976064197888</v>
+        <v>1486.360653751016</v>
       </c>
       <c r="T12" t="n">
-        <v>1168.145965317405</v>
+        <v>1418.313856114378</v>
       </c>
       <c r="U12" t="n">
-        <v>1072.987254363112</v>
+        <v>1323.155145160084</v>
       </c>
       <c r="V12" t="n">
-        <v>970.8822178815836</v>
+        <v>1088.003036928342</v>
       </c>
       <c r="W12" t="n">
-        <v>849.6919329035967</v>
+        <v>966.8127519503548</v>
       </c>
       <c r="X12" t="n">
-        <v>774.8875044482786</v>
+        <v>758.961251744822</v>
       </c>
       <c r="Y12" t="n">
-        <v>700.1742774335394</v>
+        <v>684.2480247300828</v>
       </c>
     </row>
     <row r="13">
@@ -5188,31 +5188,31 @@
         <v>112.7840650661158</v>
       </c>
       <c r="G13" t="n">
-        <v>76.37056042946796</v>
+        <v>76.37056042946794</v>
       </c>
       <c r="H13" t="n">
-        <v>47.5725409718431</v>
+        <v>47.57254097184309</v>
       </c>
       <c r="I13" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="J13" t="n">
-        <v>69.24603200060962</v>
+        <v>84.15679020220475</v>
       </c>
       <c r="K13" t="n">
-        <v>73.07973984615282</v>
+        <v>218.3899330701334</v>
       </c>
       <c r="L13" t="n">
-        <v>263.9114356143809</v>
+        <v>409.2216288383614</v>
       </c>
       <c r="M13" t="n">
-        <v>468.4173394595724</v>
+        <v>613.7275326835529</v>
       </c>
       <c r="N13" t="n">
-        <v>676.5957735341128</v>
+        <v>806.9952085564983</v>
       </c>
       <c r="O13" t="n">
-        <v>862.8204075624651</v>
+        <v>993.2198425848507</v>
       </c>
       <c r="P13" t="n">
         <v>1017.467262206715</v>
@@ -5252,40 +5252,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>654.3375523668823</v>
+        <v>520.3410671603044</v>
       </c>
       <c r="C14" t="n">
-        <v>654.3375523668823</v>
+        <v>520.3410671603044</v>
       </c>
       <c r="D14" t="n">
-        <v>654.3375523668823</v>
+        <v>295.1224403037686</v>
       </c>
       <c r="E14" t="n">
-        <v>654.3375523668823</v>
+        <v>295.1224403037686</v>
       </c>
       <c r="F14" t="n">
-        <v>376.3987193274895</v>
+        <v>295.1224403037686</v>
       </c>
       <c r="G14" t="n">
-        <v>90.45476164608232</v>
+        <v>295.1224403037686</v>
       </c>
       <c r="H14" t="n">
-        <v>90.45476164608232</v>
+        <v>90.45476164608225</v>
       </c>
       <c r="I14" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="J14" t="n">
-        <v>60.75260108020984</v>
+        <v>60.75260108020962</v>
       </c>
       <c r="K14" t="n">
-        <v>226.9372683326558</v>
+        <v>226.9372683326555</v>
       </c>
       <c r="L14" t="n">
         <v>485.3806706550284</v>
       </c>
       <c r="M14" t="n">
-        <v>789.5552979241023</v>
+        <v>789.5552979241024</v>
       </c>
       <c r="N14" t="n">
         <v>1084.019791121359</v>
@@ -5294,7 +5294,7 @@
         <v>1316.886624186929</v>
       </c>
       <c r="P14" t="n">
-        <v>1477.958695736267</v>
+        <v>1477.958695736266</v>
       </c>
       <c r="Q14" t="n">
         <v>1521.6953536967</v>
@@ -5306,22 +5306,22 @@
         <v>1455.157131708067</v>
       </c>
       <c r="T14" t="n">
-        <v>1455.157131708067</v>
+        <v>1365.072875059107</v>
       </c>
       <c r="U14" t="n">
-        <v>1455.157131708067</v>
+        <v>1244.275983741029</v>
       </c>
       <c r="V14" t="n">
-        <v>1257.141316114711</v>
+        <v>1234.034105504976</v>
       </c>
       <c r="W14" t="n">
-        <v>1151.848499103344</v>
+        <v>1014.312521985077</v>
       </c>
       <c r="X14" t="n">
-        <v>911.4298125924793</v>
+        <v>773.8938354742114</v>
       </c>
       <c r="Y14" t="n">
-        <v>654.3375523668823</v>
+        <v>773.8938354742114</v>
       </c>
     </row>
     <row r="15">
@@ -5331,49 +5331,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>298.6480981568868</v>
+        <v>132.8177251628267</v>
       </c>
       <c r="C15" t="n">
-        <v>257.2421406259745</v>
+        <v>91.41176763191449</v>
       </c>
       <c r="D15" t="n">
-        <v>241.354802714938</v>
+        <v>75.52442972087802</v>
       </c>
       <c r="E15" t="n">
-        <v>215.1644194596972</v>
+        <v>49.33404646563731</v>
       </c>
       <c r="F15" t="n">
-        <v>68.62986148658214</v>
+        <v>35.84656024273707</v>
       </c>
       <c r="G15" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="H15" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I15" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="J15" t="n">
-        <v>54.7981338372213</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="K15" t="n">
-        <v>223.0613211674321</v>
+        <v>198.6970944041448</v>
       </c>
       <c r="L15" t="n">
-        <v>510.7163377867617</v>
+        <v>486.3521110234744</v>
       </c>
       <c r="M15" t="n">
-        <v>887.3359378266949</v>
+        <v>862.9717110634076</v>
       </c>
       <c r="N15" t="n">
-        <v>976.3422254013742</v>
+        <v>1239.591311103341</v>
       </c>
       <c r="O15" t="n">
-        <v>1288.313760533886</v>
+        <v>1239.591311103341</v>
       </c>
       <c r="P15" t="n">
-        <v>1521.6953536967</v>
+        <v>1418.383708616427</v>
       </c>
       <c r="Q15" t="n">
         <v>1521.6953536967</v>
@@ -5382,25 +5382,25 @@
         <v>1437.357835893786</v>
       </c>
       <c r="S15" t="n">
-        <v>1402.023135948102</v>
+        <v>1268.976064197888</v>
       </c>
       <c r="T15" t="n">
-        <v>1333.976338311464</v>
+        <v>1067.882194811035</v>
       </c>
       <c r="U15" t="n">
-        <v>1105.770555606957</v>
+        <v>972.7234838567418</v>
       </c>
       <c r="V15" t="n">
-        <v>1003.665519125429</v>
+        <v>737.5713756249991</v>
       </c>
       <c r="W15" t="n">
-        <v>882.4752341474416</v>
+        <v>483.3340188967974</v>
       </c>
       <c r="X15" t="n">
-        <v>674.6237339419088</v>
+        <v>375.7462891976339</v>
       </c>
       <c r="Y15" t="n">
-        <v>466.8634351769549</v>
+        <v>167.98599043268</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>194.451641485803</v>
+        <v>194.4516414858024</v>
       </c>
       <c r="C16" t="n">
-        <v>158.5625303081108</v>
+        <v>158.5625303081103</v>
       </c>
       <c r="D16" t="n">
-        <v>141.4929626459898</v>
+        <v>141.4929626459894</v>
       </c>
       <c r="E16" t="n">
-        <v>126.6269408138114</v>
+        <v>126.6269408138111</v>
       </c>
       <c r="F16" t="n">
-        <v>112.7840650661158</v>
+        <v>112.7840650661155</v>
       </c>
       <c r="G16" t="n">
-        <v>76.37056042946796</v>
+        <v>76.37056042946777</v>
       </c>
       <c r="H16" t="n">
-        <v>47.5725409718431</v>
+        <v>47.572540971843</v>
       </c>
       <c r="I16" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="J16" t="n">
-        <v>84.15679020220473</v>
+        <v>69.24603200060804</v>
       </c>
       <c r="K16" t="n">
-        <v>218.3899330701333</v>
+        <v>203.4791748685367</v>
       </c>
       <c r="L16" t="n">
-        <v>278.8221938159759</v>
+        <v>394.3108706367649</v>
       </c>
       <c r="M16" t="n">
-        <v>483.3280976611675</v>
+        <v>598.8167744819565</v>
       </c>
       <c r="N16" t="n">
-        <v>691.5065317357079</v>
+        <v>676.5957735341115</v>
       </c>
       <c r="O16" t="n">
-        <v>877.7311657640603</v>
+        <v>862.8204075624639</v>
       </c>
       <c r="P16" t="n">
-        <v>1032.37802040831</v>
+        <v>1017.467262206713</v>
       </c>
       <c r="Q16" t="n">
-        <v>1081.219273571223</v>
+        <v>1081.219273571222</v>
       </c>
       <c r="R16" t="n">
-        <v>1045.401516617311</v>
+        <v>1045.401516617309</v>
       </c>
       <c r="S16" t="n">
-        <v>956.1300939856995</v>
+        <v>956.1300939856984</v>
       </c>
       <c r="T16" t="n">
-        <v>859.9002076877739</v>
+        <v>859.9002076877729</v>
       </c>
       <c r="U16" t="n">
-        <v>703.7485358493641</v>
+        <v>703.7485358493632</v>
       </c>
       <c r="V16" t="n">
-        <v>582.111119393692</v>
+        <v>582.1111193936911</v>
       </c>
       <c r="W16" t="n">
-        <v>425.7410211069461</v>
+        <v>425.7410211069452</v>
       </c>
       <c r="X16" t="n">
-        <v>330.7985419591434</v>
+        <v>330.7985419591427</v>
       </c>
       <c r="Y16" t="n">
-        <v>243.053034565828</v>
+        <v>243.0530345658273</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>872.4784887810894</v>
+        <v>872.4784887810899</v>
       </c>
       <c r="C17" t="n">
-        <v>743.2932336852413</v>
+        <v>743.2932336852418</v>
       </c>
       <c r="D17" t="n">
-        <v>624.8047969230544</v>
+        <v>624.8047969230549</v>
       </c>
       <c r="E17" t="n">
-        <v>478.7938061693737</v>
+        <v>478.7938061693742</v>
       </c>
       <c r="F17" t="n">
-        <v>307.5851632243298</v>
+        <v>307.5851632243302</v>
       </c>
       <c r="G17" t="n">
-        <v>128.3713956372716</v>
+        <v>128.3713956372717</v>
       </c>
       <c r="H17" t="n">
         <v>30.433907073934</v>
@@ -5558,7 +5558,7 @@
         <v>1169.663137131896</v>
       </c>
       <c r="Y17" t="n">
-        <v>1019.301067000647</v>
+        <v>1019.301067000648</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>509.5446037158656</v>
+        <v>179.3683167351853</v>
       </c>
       <c r="C18" t="n">
-        <v>509.5446037158656</v>
+        <v>179.3683167351853</v>
       </c>
       <c r="D18" t="n">
-        <v>360.6101940546143</v>
+        <v>30.433907073934</v>
       </c>
       <c r="E18" t="n">
-        <v>360.6101940546143</v>
+        <v>30.433907073934</v>
       </c>
       <c r="F18" t="n">
-        <v>360.6101940546143</v>
+        <v>30.433907073934</v>
       </c>
       <c r="G18" t="n">
-        <v>222.1504691355965</v>
+        <v>30.433907073934</v>
       </c>
       <c r="H18" t="n">
-        <v>111.399593619506</v>
+        <v>30.433907073934</v>
       </c>
       <c r="I18" t="n">
         <v>30.433907073934</v>
@@ -5625,19 +5625,19 @@
         <v>1067.882194811035</v>
       </c>
       <c r="U18" t="n">
-        <v>939.6164975699903</v>
+        <v>1067.882194811035</v>
       </c>
       <c r="V18" t="n">
-        <v>939.6164975699903</v>
+        <v>1017.432809453942</v>
       </c>
       <c r="W18" t="n">
-        <v>925.1564026863523</v>
+        <v>763.1954527257401</v>
       </c>
       <c r="X18" t="n">
-        <v>717.3049024808195</v>
+        <v>555.3439525202073</v>
       </c>
       <c r="Y18" t="n">
-        <v>509.5446037158656</v>
+        <v>347.5836537552533</v>
       </c>
     </row>
     <row r="19">
@@ -5647,7 +5647,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>199.3700900018409</v>
+        <v>30.433907073934</v>
       </c>
       <c r="C19" t="n">
         <v>30.433907073934</v>
@@ -5698,25 +5698,25 @@
         <v>326.6579621681117</v>
       </c>
       <c r="S19" t="n">
-        <v>313.3387062996222</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="T19" t="n">
-        <v>313.3387062996222</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="U19" t="n">
-        <v>263.9172245555612</v>
+        <v>277.2364804240507</v>
       </c>
       <c r="V19" t="n">
-        <v>249.0099981942379</v>
+        <v>80.07381526633108</v>
       </c>
       <c r="W19" t="n">
-        <v>199.3700900018409</v>
+        <v>30.433907073934</v>
       </c>
       <c r="X19" t="n">
-        <v>199.3700900018409</v>
+        <v>30.433907073934</v>
       </c>
       <c r="Y19" t="n">
-        <v>199.3700900018409</v>
+        <v>30.433907073934</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>872.4784887810902</v>
+        <v>872.4784887810899</v>
       </c>
       <c r="C20" t="n">
-        <v>743.2932336852421</v>
+        <v>743.2932336852418</v>
       </c>
       <c r="D20" t="n">
-        <v>624.8047969230552</v>
+        <v>624.8047969230549</v>
       </c>
       <c r="E20" t="n">
-        <v>478.7938061693745</v>
+        <v>478.7938061693742</v>
       </c>
       <c r="F20" t="n">
-        <v>307.5851632243306</v>
+        <v>307.5851632243302</v>
       </c>
       <c r="G20" t="n">
-        <v>128.3713956372716</v>
+        <v>128.3713956372717</v>
       </c>
       <c r="H20" t="n">
         <v>30.433907073934</v>
@@ -5750,10 +5750,10 @@
         <v>30.433907073934</v>
       </c>
       <c r="J20" t="n">
-        <v>60.75260108020959</v>
+        <v>60.75260108020956</v>
       </c>
       <c r="K20" t="n">
-        <v>226.9372683326557</v>
+        <v>226.9372683326556</v>
       </c>
       <c r="L20" t="n">
         <v>485.3806706550283</v>
@@ -5768,7 +5768,7 @@
         <v>1316.886624186929</v>
       </c>
       <c r="P20" t="n">
-        <v>1477.958695736267</v>
+        <v>1477.958695736266</v>
       </c>
       <c r="Q20" t="n">
         <v>1521.6953536967</v>
@@ -5792,7 +5792,7 @@
         <v>1303.351633548413</v>
       </c>
       <c r="X20" t="n">
-        <v>1169.663137131897</v>
+        <v>1169.663137131896</v>
       </c>
       <c r="Y20" t="n">
         <v>1019.301067000648</v>
@@ -5805,46 +5805,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>270.6370486249615</v>
+        <v>202.42589262549</v>
       </c>
       <c r="C21" t="n">
-        <v>270.6370486249615</v>
+        <v>202.42589262549</v>
       </c>
       <c r="D21" t="n">
-        <v>270.6370486249615</v>
+        <v>168.8936319929519</v>
       </c>
       <c r="E21" t="n">
-        <v>111.399593619506</v>
+        <v>168.8936319929519</v>
       </c>
       <c r="F21" t="n">
-        <v>111.399593619506</v>
+        <v>168.8936319929519</v>
       </c>
       <c r="G21" t="n">
-        <v>111.399593619506</v>
+        <v>30.433907073934</v>
       </c>
       <c r="H21" t="n">
-        <v>111.399593619506</v>
+        <v>30.433907073934</v>
       </c>
       <c r="I21" t="n">
         <v>30.433907073934</v>
       </c>
       <c r="J21" t="n">
-        <v>54.7981338372213</v>
+        <v>30.433907073934</v>
       </c>
       <c r="K21" t="n">
-        <v>223.0613211674321</v>
+        <v>30.433907073934</v>
       </c>
       <c r="L21" t="n">
-        <v>510.7163377867617</v>
+        <v>318.0889236932636</v>
       </c>
       <c r="M21" t="n">
-        <v>887.3359378266949</v>
+        <v>694.7085237331968</v>
       </c>
       <c r="N21" t="n">
-        <v>1263.955537866628</v>
+        <v>873.0305803211015</v>
       </c>
       <c r="O21" t="n">
-        <v>1263.955537866628</v>
+        <v>1185.002115453613</v>
       </c>
       <c r="P21" t="n">
         <v>1418.383708616427</v>
@@ -5856,25 +5856,25 @@
         <v>1437.357835893786</v>
       </c>
       <c r="S21" t="n">
-        <v>1437.357835893786</v>
+        <v>1268.976064197888</v>
       </c>
       <c r="T21" t="n">
-        <v>1343.853649575461</v>
+        <v>1067.882194811035</v>
       </c>
       <c r="U21" t="n">
-        <v>1343.853649575461</v>
+        <v>1067.882194811035</v>
       </c>
       <c r="V21" t="n">
-        <v>1108.701541343718</v>
+        <v>832.7300865792924</v>
       </c>
       <c r="W21" t="n">
-        <v>854.4641846155163</v>
+        <v>578.4927298510909</v>
       </c>
       <c r="X21" t="n">
-        <v>646.6126844099834</v>
+        <v>370.641229645558</v>
       </c>
       <c r="Y21" t="n">
-        <v>438.8523856450295</v>
+        <v>370.641229645558</v>
       </c>
     </row>
     <row r="22">
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>108.6673035580833</v>
+        <v>30.433907073934</v>
       </c>
       <c r="C22" t="n">
-        <v>108.6673035580833</v>
+        <v>30.433907073934</v>
       </c>
       <c r="D22" t="n">
-        <v>108.6673035580833</v>
+        <v>30.433907073934</v>
       </c>
       <c r="E22" t="n">
-        <v>108.6673035580833</v>
+        <v>30.433907073934</v>
       </c>
       <c r="F22" t="n">
-        <v>108.6673035580833</v>
+        <v>30.433907073934</v>
       </c>
       <c r="G22" t="n">
-        <v>108.6673035580833</v>
+        <v>30.433907073934</v>
       </c>
       <c r="H22" t="n">
-        <v>108.6673035580833</v>
+        <v>30.433907073934</v>
       </c>
       <c r="I22" t="n">
-        <v>108.6673035580833</v>
+        <v>30.433907073934</v>
       </c>
       <c r="J22" t="n">
         <v>30.433907073934</v>
@@ -5929,31 +5929,31 @@
         <v>326.6579621681117</v>
       </c>
       <c r="Q22" t="n">
-        <v>258.6573258474539</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="R22" t="n">
-        <v>258.6573258474539</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="S22" t="n">
-        <v>258.6573258474539</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="T22" t="n">
-        <v>222.6359198558645</v>
+        <v>326.6579621681117</v>
       </c>
       <c r="U22" t="n">
-        <v>173.2144381118036</v>
+        <v>277.2364804240507</v>
       </c>
       <c r="V22" t="n">
-        <v>158.3072117504803</v>
+        <v>262.3292540627274</v>
       </c>
       <c r="W22" t="n">
-        <v>108.6673035580833</v>
+        <v>212.6893458703303</v>
       </c>
       <c r="X22" t="n">
-        <v>108.6673035580833</v>
+        <v>212.6893458703303</v>
       </c>
       <c r="Y22" t="n">
-        <v>108.6673035580833</v>
+        <v>212.0823719041737</v>
       </c>
     </row>
     <row r="23">
@@ -5966,25 +5966,25 @@
         <v>872.4784887810899</v>
       </c>
       <c r="C23" t="n">
-        <v>743.2932336852418</v>
+        <v>743.2932336852416</v>
       </c>
       <c r="D23" t="n">
-        <v>624.8047969230549</v>
+        <v>624.8047969230547</v>
       </c>
       <c r="E23" t="n">
         <v>478.7938061693742</v>
       </c>
       <c r="F23" t="n">
-        <v>307.5851632243302</v>
+        <v>307.58516322433</v>
       </c>
       <c r="G23" t="n">
         <v>128.3713956372717</v>
       </c>
       <c r="H23" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I23" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="J23" t="n">
         <v>60.75260108020956</v>
@@ -5993,10 +5993,10 @@
         <v>226.9372683326556</v>
       </c>
       <c r="L23" t="n">
-        <v>485.3806706550283</v>
+        <v>485.3806706550282</v>
       </c>
       <c r="M23" t="n">
-        <v>789.5552979241023</v>
+        <v>789.5552979241022</v>
       </c>
       <c r="N23" t="n">
         <v>1084.019791121359</v>
@@ -6026,7 +6026,7 @@
         <v>1416.343026973963</v>
       </c>
       <c r="W23" t="n">
-        <v>1303.351633548413</v>
+        <v>1303.351633548412</v>
       </c>
       <c r="X23" t="n">
         <v>1169.663137131896</v>
@@ -6042,49 +6042,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>222.1504691355965</v>
+        <v>204.886936355061</v>
       </c>
       <c r="C24" t="n">
-        <v>222.1504691355965</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="D24" t="n">
-        <v>222.1504691355965</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="E24" t="n">
-        <v>222.1504691355965</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="F24" t="n">
-        <v>222.1504691355965</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="G24" t="n">
-        <v>222.1504691355965</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="H24" t="n">
-        <v>111.399593619506</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I24" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="J24" t="n">
-        <v>30.433907073934</v>
+        <v>54.7981338372213</v>
       </c>
       <c r="K24" t="n">
-        <v>30.433907073934</v>
+        <v>223.0613211674321</v>
       </c>
       <c r="L24" t="n">
-        <v>223.1030253215078</v>
+        <v>510.7163377867617</v>
       </c>
       <c r="M24" t="n">
-        <v>599.722625361441</v>
+        <v>887.3359378266948</v>
       </c>
       <c r="N24" t="n">
-        <v>976.3422254013742</v>
+        <v>887.3359378266948</v>
       </c>
       <c r="O24" t="n">
-        <v>1288.313760533886</v>
+        <v>1185.002115453613</v>
       </c>
       <c r="P24" t="n">
-        <v>1521.6953536967</v>
+        <v>1418.383708616427</v>
       </c>
       <c r="Q24" t="n">
         <v>1521.6953536967</v>
@@ -6099,19 +6099,19 @@
         <v>1067.882194811035</v>
       </c>
       <c r="U24" t="n">
-        <v>891.9996248342848</v>
+        <v>839.676412106527</v>
       </c>
       <c r="V24" t="n">
-        <v>891.9996248342848</v>
+        <v>604.5243038747842</v>
       </c>
       <c r="W24" t="n">
-        <v>637.7622681060832</v>
+        <v>350.2869471465826</v>
       </c>
       <c r="X24" t="n">
-        <v>429.9107679005504</v>
+        <v>204.886936355061</v>
       </c>
       <c r="Y24" t="n">
-        <v>222.1504691355965</v>
+        <v>204.886936355061</v>
       </c>
     </row>
     <row r="25">
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="C25" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="D25" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="E25" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="F25" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="G25" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="H25" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="I25" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="J25" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="K25" t="n">
-        <v>34.26761491947719</v>
+        <v>34.26761491947718</v>
       </c>
       <c r="L25" t="n">
-        <v>94.69987566531981</v>
+        <v>94.69987566531979</v>
       </c>
       <c r="M25" t="n">
         <v>168.8063444881259</v>
@@ -6172,25 +6172,25 @@
         <v>326.6579621681117</v>
       </c>
       <c r="S25" t="n">
-        <v>326.6579621681117</v>
+        <v>144.4025233717154</v>
       </c>
       <c r="T25" t="n">
-        <v>326.6579621681117</v>
+        <v>144.4025233717154</v>
       </c>
       <c r="U25" t="n">
-        <v>277.2364804240507</v>
+        <v>94.98104162765442</v>
       </c>
       <c r="V25" t="n">
-        <v>262.3292540627274</v>
+        <v>80.07381526633108</v>
       </c>
       <c r="W25" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="X25" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
       <c r="Y25" t="n">
-        <v>30.433907073934</v>
+        <v>30.43390707393399</v>
       </c>
     </row>
     <row r="26">
@@ -6209,67 +6209,67 @@
         <v>1044.075666754194</v>
       </c>
       <c r="E26" t="n">
-        <v>809.8470710028707</v>
+        <v>809.8470710028712</v>
       </c>
       <c r="F26" t="n">
-        <v>550.4208230601845</v>
+        <v>550.4208230601848</v>
       </c>
       <c r="G26" t="n">
-        <v>282.9894504754839</v>
+        <v>282.9894504754841</v>
       </c>
       <c r="H26" t="n">
-        <v>96.83435691450482</v>
+        <v>96.83435691450492</v>
       </c>
       <c r="I26" t="n">
-        <v>55.32608743906312</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="J26" t="n">
         <v>234.1884011210063</v>
       </c>
       <c r="K26" t="n">
-        <v>548.9166880491199</v>
+        <v>548.9166880491198</v>
       </c>
       <c r="L26" t="n">
-        <v>955.9037100471601</v>
+        <v>955.90371004716</v>
       </c>
       <c r="M26" t="n">
-        <v>1408.621956991902</v>
+        <v>1408.621956991901</v>
       </c>
       <c r="N26" t="n">
         <v>1851.630069864826</v>
       </c>
       <c r="O26" t="n">
-        <v>2233.040522606064</v>
+        <v>2233.040522606063</v>
       </c>
       <c r="P26" t="n">
-        <v>2542.656213831069</v>
+        <v>2542.656213831068</v>
       </c>
       <c r="Q26" t="n">
-        <v>2734.936491467166</v>
+        <v>2734.936491467169</v>
       </c>
       <c r="R26" t="n">
-        <v>2766.304371953156</v>
+        <v>2766.304371953158</v>
       </c>
       <c r="S26" t="n">
-        <v>2718.27873506123</v>
+        <v>2718.278735061233</v>
       </c>
       <c r="T26" t="n">
-        <v>2646.707063508976</v>
+        <v>2646.707063508979</v>
       </c>
       <c r="U26" t="n">
-        <v>2544.422757287604</v>
+        <v>2544.422757287606</v>
       </c>
       <c r="V26" t="n">
-        <v>2364.919526790955</v>
+        <v>2364.919526790956</v>
       </c>
       <c r="W26" t="n">
-        <v>2163.710528367762</v>
+        <v>2163.710528367763</v>
       </c>
       <c r="X26" t="n">
         <v>1941.804426953604</v>
       </c>
       <c r="Y26" t="n">
-        <v>1703.224751824713</v>
+        <v>1703.224751824714</v>
       </c>
     </row>
     <row r="27">
@@ -6279,34 +6279,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>684.4855393600119</v>
+        <v>497.1422000560662</v>
       </c>
       <c r="C27" t="n">
-        <v>510.0325100788849</v>
+        <v>474.2488276218604</v>
       </c>
       <c r="D27" t="n">
-        <v>361.0981004176336</v>
+        <v>325.3144179606091</v>
       </c>
       <c r="E27" t="n">
-        <v>201.8606454121781</v>
+        <v>166.0769629551536</v>
       </c>
       <c r="F27" t="n">
-        <v>55.32608743906312</v>
+        <v>166.0769629551536</v>
       </c>
       <c r="G27" t="n">
-        <v>55.32608743906312</v>
+        <v>166.0769629551536</v>
       </c>
       <c r="H27" t="n">
-        <v>55.32608743906312</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="I27" t="n">
-        <v>55.32608743906312</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="J27" t="n">
-        <v>79.69031420235042</v>
+        <v>79.69031420235046</v>
       </c>
       <c r="K27" t="n">
-        <v>247.9535015325612</v>
+        <v>247.9535015325613</v>
       </c>
       <c r="L27" t="n">
         <v>535.6085181518908</v>
@@ -6327,28 +6327,28 @@
         <v>1985.558603119544</v>
       </c>
       <c r="R27" t="n">
-        <v>1985.558603119544</v>
+        <v>1901.221085316631</v>
       </c>
       <c r="S27" t="n">
-        <v>1883.882478708029</v>
+        <v>1884.398970467653</v>
       </c>
       <c r="T27" t="n">
-        <v>1682.788609321176</v>
+        <v>1683.305101080801</v>
       </c>
       <c r="U27" t="n">
-        <v>1454.582826616668</v>
+        <v>1455.099318376293</v>
       </c>
       <c r="V27" t="n">
-        <v>1219.430718384926</v>
+        <v>1219.94721014455</v>
       </c>
       <c r="W27" t="n">
-        <v>965.1933616567239</v>
+        <v>965.7098534163488</v>
       </c>
       <c r="X27" t="n">
-        <v>908.9015182981125</v>
+        <v>757.8583532108159</v>
       </c>
       <c r="Y27" t="n">
-        <v>701.1412195331586</v>
+        <v>550.0980544458621</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>91.32388724474113</v>
+        <v>91.32388724474153</v>
       </c>
       <c r="C28" t="n">
-        <v>73.94736116375553</v>
+        <v>73.94736116375587</v>
       </c>
       <c r="D28" t="n">
-        <v>75.36166255139287</v>
+        <v>75.36166255139315</v>
       </c>
       <c r="E28" t="n">
-        <v>78.93565920695696</v>
+        <v>78.93565920695718</v>
       </c>
       <c r="F28" t="n">
-        <v>83.5124413399226</v>
+        <v>83.51244133992277</v>
       </c>
       <c r="G28" t="n">
-        <v>65.61152179998138</v>
+        <v>65.61152179998149</v>
       </c>
       <c r="H28" t="n">
-        <v>55.32608743906312</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="I28" t="n">
-        <v>56.67269700900455</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="J28" t="n">
-        <v>128.5397647905574</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="K28" t="n">
-        <v>132.3734726361006</v>
+        <v>59.15979528460635</v>
       </c>
       <c r="L28" t="n">
-        <v>192.8057333819432</v>
+        <v>200.5367315878853</v>
       </c>
       <c r="M28" t="n">
-        <v>274.6432004106903</v>
+        <v>274.6432004106914</v>
       </c>
       <c r="N28" t="n">
-        <v>500.9658191385128</v>
+        <v>500.9658191385139</v>
       </c>
       <c r="O28" t="n">
-        <v>705.3346378201472</v>
+        <v>705.3346378201483</v>
       </c>
       <c r="P28" t="n">
-        <v>729.5820574420112</v>
+        <v>729.5820574420122</v>
       </c>
       <c r="Q28" t="n">
-        <v>811.4782534598021</v>
+        <v>811.478253459803</v>
       </c>
       <c r="R28" t="n">
-        <v>794.1730816025959</v>
+        <v>794.1730816025968</v>
       </c>
       <c r="S28" t="n">
-        <v>723.4142440676914</v>
+        <v>723.4142440676923</v>
       </c>
       <c r="T28" t="n">
-        <v>645.6969428664723</v>
+        <v>645.6969428664731</v>
       </c>
       <c r="U28" t="n">
-        <v>508.0578561247692</v>
+        <v>508.0578561247698</v>
       </c>
       <c r="V28" t="n">
-        <v>404.9330247658036</v>
+        <v>404.9330247658042</v>
       </c>
       <c r="W28" t="n">
-        <v>267.0755115757643</v>
+        <v>267.0755115757649</v>
       </c>
       <c r="X28" t="n">
-        <v>190.6456175246683</v>
+        <v>190.6456175246688</v>
       </c>
       <c r="Y28" t="n">
-        <v>121.4126952280595</v>
+        <v>121.41269522806</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6437,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1468.184568607514</v>
+        <v>1468.184568607515</v>
       </c>
       <c r="C29" t="n">
-        <v>1250.781708514024</v>
+        <v>1250.781708514025</v>
       </c>
       <c r="D29" t="n">
-        <v>1044.075666754194</v>
+        <v>1044.075666754195</v>
       </c>
       <c r="E29" t="n">
-        <v>809.8470710028714</v>
+        <v>809.8470710028723</v>
       </c>
       <c r="F29" t="n">
-        <v>550.4208230601851</v>
+        <v>550.420823060186</v>
       </c>
       <c r="G29" t="n">
-        <v>282.9894504754843</v>
+        <v>282.9894504754852</v>
       </c>
       <c r="H29" t="n">
-        <v>96.83435691450492</v>
+        <v>96.83435691450498</v>
       </c>
       <c r="I29" t="n">
-        <v>55.32608743906316</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="J29" t="n">
-        <v>234.1884011210053</v>
+        <v>234.1884011210063</v>
       </c>
       <c r="K29" t="n">
-        <v>548.9166880491191</v>
+        <v>548.9166880491198</v>
       </c>
       <c r="L29" t="n">
-        <v>955.9037100471593</v>
+        <v>955.90371004716</v>
       </c>
       <c r="M29" t="n">
         <v>1408.621956991901</v>
@@ -6482,31 +6482,31 @@
         <v>2542.656213831068</v>
       </c>
       <c r="Q29" t="n">
-        <v>2734.936491467168</v>
+        <v>2734.936491467169</v>
       </c>
       <c r="R29" t="n">
         <v>2766.304371953158</v>
       </c>
       <c r="S29" t="n">
-        <v>2718.278735061232</v>
+        <v>2718.278735061233</v>
       </c>
       <c r="T29" t="n">
-        <v>2646.707063508978</v>
+        <v>2646.707063508979</v>
       </c>
       <c r="U29" t="n">
         <v>2544.422757287607</v>
       </c>
       <c r="V29" t="n">
-        <v>2364.919526790957</v>
+        <v>2364.919526790958</v>
       </c>
       <c r="W29" t="n">
-        <v>2163.710528367764</v>
+        <v>2163.710528367765</v>
       </c>
       <c r="X29" t="n">
         <v>1941.804426953606</v>
       </c>
       <c r="Y29" t="n">
-        <v>1703.224751824715</v>
+        <v>1703.224751824716</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>684.485539360012</v>
+        <v>386.3913245399757</v>
       </c>
       <c r="C30" t="n">
-        <v>510.032510078885</v>
+        <v>211.9382952588487</v>
       </c>
       <c r="D30" t="n">
-        <v>361.0981004176337</v>
+        <v>63.00388559759745</v>
       </c>
       <c r="E30" t="n">
-        <v>201.8606454121782</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="F30" t="n">
-        <v>55.32608743906316</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="G30" t="n">
-        <v>55.32608743906316</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="H30" t="n">
-        <v>55.32608743906316</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="I30" t="n">
-        <v>55.32608743906316</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="J30" t="n">
         <v>79.69031420235046</v>
@@ -6564,28 +6564,28 @@
         <v>1985.558603119544</v>
       </c>
       <c r="R30" t="n">
-        <v>1985.558603119544</v>
+        <v>1901.221085316631</v>
       </c>
       <c r="S30" t="n">
-        <v>1968.736488270567</v>
+        <v>1732.839313620732</v>
       </c>
       <c r="T30" t="n">
-        <v>1834.348266168098</v>
+        <v>1531.74544423388</v>
       </c>
       <c r="U30" t="n">
-        <v>1606.14248346359</v>
+        <v>1303.539661529372</v>
       </c>
       <c r="V30" t="n">
-        <v>1370.990375231847</v>
+        <v>1072.896160411811</v>
       </c>
       <c r="W30" t="n">
-        <v>1116.753018503646</v>
+        <v>970.2184605305304</v>
       </c>
       <c r="X30" t="n">
-        <v>908.9015182981127</v>
+        <v>762.3669603249975</v>
       </c>
       <c r="Y30" t="n">
-        <v>701.1412195331587</v>
+        <v>554.6066615600437</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.31497076534438</v>
+        <v>91.3238872447417</v>
       </c>
       <c r="C31" t="n">
-        <v>79.93844468435873</v>
+        <v>73.94736116375601</v>
       </c>
       <c r="D31" t="n">
-        <v>79.93844468435873</v>
+        <v>75.36166255139327</v>
       </c>
       <c r="E31" t="n">
-        <v>83.51244133992276</v>
+        <v>78.93565920695727</v>
       </c>
       <c r="F31" t="n">
-        <v>83.51244133992276</v>
+        <v>83.51244133992283</v>
       </c>
       <c r="G31" t="n">
-        <v>65.61152179998147</v>
+        <v>65.61152179998152</v>
       </c>
       <c r="H31" t="n">
-        <v>55.32608743906316</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="I31" t="n">
-        <v>56.67269700900454</v>
+        <v>56.67269700900452</v>
       </c>
       <c r="J31" t="n">
-        <v>56.67269700900454</v>
+        <v>56.67269700900452</v>
       </c>
       <c r="K31" t="n">
-        <v>209.0500245302152</v>
+        <v>60.5064048545477</v>
       </c>
       <c r="L31" t="n">
-        <v>288.4240111262789</v>
+        <v>269.4822852760578</v>
       </c>
       <c r="M31" t="n">
-        <v>511.0740996247524</v>
+        <v>492.1323737745314</v>
       </c>
       <c r="N31" t="n">
-        <v>588.8530986769074</v>
+        <v>718.4549925023538</v>
       </c>
       <c r="O31" t="n">
-        <v>644.6782976828742</v>
+        <v>774.2801915083206</v>
       </c>
       <c r="P31" t="n">
-        <v>817.4693369804058</v>
+        <v>811.4782534598036</v>
       </c>
       <c r="Q31" t="n">
-        <v>817.4693369804058</v>
+        <v>811.4782534598036</v>
       </c>
       <c r="R31" t="n">
-        <v>800.1641651231996</v>
+        <v>794.1730816025972</v>
       </c>
       <c r="S31" t="n">
-        <v>729.4053275882951</v>
+        <v>723.4142440676926</v>
       </c>
       <c r="T31" t="n">
-        <v>651.688026387076</v>
+        <v>645.6969428664735</v>
       </c>
       <c r="U31" t="n">
-        <v>514.0489396453728</v>
+        <v>508.0578561247702</v>
       </c>
       <c r="V31" t="n">
-        <v>410.9241082864071</v>
+        <v>404.9330247658046</v>
       </c>
       <c r="W31" t="n">
-        <v>273.0665950963678</v>
+        <v>267.0755115757652</v>
       </c>
       <c r="X31" t="n">
-        <v>196.6367010452717</v>
+        <v>190.645617524669</v>
       </c>
       <c r="Y31" t="n">
-        <v>127.4037787486628</v>
+        <v>121.4126952280602</v>
       </c>
     </row>
     <row r="32">
@@ -6674,43 +6674,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1468.184568607514</v>
+        <v>1468.184568607515</v>
       </c>
       <c r="C32" t="n">
         <v>1250.781708514024</v>
       </c>
       <c r="D32" t="n">
-        <v>1044.075666754194</v>
+        <v>1044.075666754195</v>
       </c>
       <c r="E32" t="n">
-        <v>809.8470710028714</v>
+        <v>809.847071002872</v>
       </c>
       <c r="F32" t="n">
-        <v>550.4208230601855</v>
+        <v>550.4208230601857</v>
       </c>
       <c r="G32" t="n">
-        <v>282.9894504754848</v>
+        <v>282.9894504754849</v>
       </c>
       <c r="H32" t="n">
-        <v>96.83435691450492</v>
+        <v>96.83435691450495</v>
       </c>
       <c r="I32" t="n">
-        <v>55.32608743906316</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="J32" t="n">
-        <v>234.1884011210062</v>
+        <v>234.1884011210065</v>
       </c>
       <c r="K32" t="n">
-        <v>548.9166880491198</v>
+        <v>548.91668804912</v>
       </c>
       <c r="L32" t="n">
-        <v>955.9037100471601</v>
+        <v>955.9037100471602</v>
       </c>
       <c r="M32" t="n">
         <v>1408.621956991902</v>
       </c>
       <c r="N32" t="n">
-        <v>1851.630069864825</v>
+        <v>1851.630069864826</v>
       </c>
       <c r="O32" t="n">
         <v>2233.040522606063</v>
@@ -6719,19 +6719,19 @@
         <v>2542.656213831068</v>
       </c>
       <c r="Q32" t="n">
-        <v>2734.936491467168</v>
+        <v>2734.936491467169</v>
       </c>
       <c r="R32" t="n">
         <v>2766.304371953158</v>
       </c>
       <c r="S32" t="n">
-        <v>2718.278735061232</v>
+        <v>2718.278735061233</v>
       </c>
       <c r="T32" t="n">
-        <v>2646.707063508978</v>
+        <v>2646.707063508979</v>
       </c>
       <c r="U32" t="n">
-        <v>2544.422757287606</v>
+        <v>2544.422757287607</v>
       </c>
       <c r="V32" t="n">
         <v>2364.919526790957</v>
@@ -6740,7 +6740,7 @@
         <v>2163.710528367764</v>
       </c>
       <c r="X32" t="n">
-        <v>1941.804426953605</v>
+        <v>1941.804426953606</v>
       </c>
       <c r="Y32" t="n">
         <v>1703.224751824715</v>
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>684.485539360012</v>
+        <v>234.8316676930545</v>
       </c>
       <c r="C33" t="n">
-        <v>510.032510078885</v>
+        <v>211.9382952588487</v>
       </c>
       <c r="D33" t="n">
-        <v>361.0981004176337</v>
+        <v>63.00388559759745</v>
       </c>
       <c r="E33" t="n">
-        <v>201.8606454121782</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="F33" t="n">
-        <v>55.32608743906316</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="G33" t="n">
-        <v>55.32608743906316</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="H33" t="n">
-        <v>55.32608743906316</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="I33" t="n">
-        <v>55.32608743906316</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="J33" t="n">
         <v>79.69031420235046</v>
@@ -6801,28 +6801,28 @@
         <v>1985.558603119544</v>
       </c>
       <c r="R33" t="n">
-        <v>1985.558603119544</v>
+        <v>1901.221085316631</v>
       </c>
       <c r="S33" t="n">
-        <v>1968.736488270567</v>
+        <v>1737.347920734914</v>
       </c>
       <c r="T33" t="n">
-        <v>1834.348266168098</v>
+        <v>1536.254051348061</v>
       </c>
       <c r="U33" t="n">
-        <v>1757.702140310511</v>
+        <v>1308.048268643553</v>
       </c>
       <c r="V33" t="n">
-        <v>1522.550032078768</v>
+        <v>1072.896160411811</v>
       </c>
       <c r="W33" t="n">
-        <v>1268.312675350567</v>
+        <v>818.6588036836092</v>
       </c>
       <c r="X33" t="n">
-        <v>1060.461175145034</v>
+        <v>610.8073034780764</v>
       </c>
       <c r="Y33" t="n">
-        <v>852.70087638008</v>
+        <v>403.0470047131225</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>99.47466603327113</v>
+        <v>95.90066937770726</v>
       </c>
       <c r="C34" t="n">
-        <v>82.09813995228548</v>
+        <v>78.52414329672158</v>
       </c>
       <c r="D34" t="n">
-        <v>83.51244133992276</v>
+        <v>79.93844468435883</v>
       </c>
       <c r="E34" t="n">
-        <v>83.51244133992276</v>
+        <v>83.51244133992283</v>
       </c>
       <c r="F34" t="n">
-        <v>83.51244133992276</v>
+        <v>83.51244133992283</v>
       </c>
       <c r="G34" t="n">
-        <v>65.61152179998147</v>
+        <v>65.61152179998152</v>
       </c>
       <c r="H34" t="n">
-        <v>55.32608743906316</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="I34" t="n">
-        <v>55.32608743906316</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="J34" t="n">
-        <v>127.193155220616</v>
+        <v>55.32608743906317</v>
       </c>
       <c r="K34" t="n">
-        <v>131.0268630661592</v>
+        <v>207.7034149602738</v>
       </c>
       <c r="L34" t="n">
-        <v>340.0027434876693</v>
+        <v>416.679295381784</v>
       </c>
       <c r="M34" t="n">
-        <v>414.1092123104754</v>
+        <v>639.3293838802575</v>
       </c>
       <c r="N34" t="n">
-        <v>640.4318310382979</v>
+        <v>717.1083829324125</v>
       </c>
       <c r="O34" t="n">
-        <v>713.4854166086778</v>
+        <v>772.9335819383793</v>
       </c>
       <c r="P34" t="n">
-        <v>737.7328362305418</v>
+        <v>797.1810015602433</v>
       </c>
       <c r="Q34" t="n">
-        <v>819.6290322483326</v>
+        <v>816.0550355927692</v>
       </c>
       <c r="R34" t="n">
-        <v>802.3238603911263</v>
+        <v>798.7498637355628</v>
       </c>
       <c r="S34" t="n">
-        <v>731.5650228562218</v>
+        <v>727.9910262006582</v>
       </c>
       <c r="T34" t="n">
-        <v>653.8477216550027</v>
+        <v>650.2737249994391</v>
       </c>
       <c r="U34" t="n">
-        <v>516.2086349132995</v>
+        <v>512.6346382577358</v>
       </c>
       <c r="V34" t="n">
-        <v>413.0838035543339</v>
+        <v>409.5098068987701</v>
       </c>
       <c r="W34" t="n">
-        <v>275.2262903642945</v>
+        <v>271.6522937087307</v>
       </c>
       <c r="X34" t="n">
-        <v>198.7963963131984</v>
+        <v>195.2223996576346</v>
       </c>
       <c r="Y34" t="n">
-        <v>129.5634740165896</v>
+        <v>125.9894773610257</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>872.4784887810898</v>
+        <v>872.4784887810897</v>
       </c>
       <c r="C35" t="n">
         <v>743.2932336852416</v>
@@ -6938,13 +6938,13 @@
         <v>60.75260108020962</v>
       </c>
       <c r="K35" t="n">
-        <v>226.9372683326557</v>
+        <v>226.9372683326555</v>
       </c>
       <c r="L35" t="n">
-        <v>485.3806706550284</v>
+        <v>485.3806706550282</v>
       </c>
       <c r="M35" t="n">
-        <v>789.5552979241024</v>
+        <v>789.5552979241022</v>
       </c>
       <c r="N35" t="n">
         <v>1084.019791121359</v>
@@ -6990,19 +6990,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>683.6308609779433</v>
+        <v>474.6656449715224</v>
       </c>
       <c r="C36" t="n">
-        <v>509.1778316968163</v>
+        <v>474.6656449715224</v>
       </c>
       <c r="D36" t="n">
-        <v>360.243422035565</v>
+        <v>474.6656449715224</v>
       </c>
       <c r="E36" t="n">
-        <v>201.0059670301095</v>
+        <v>315.4281899660669</v>
       </c>
       <c r="F36" t="n">
-        <v>54.47140905699447</v>
+        <v>168.8936319929519</v>
       </c>
       <c r="G36" t="n">
         <v>30.43390707393399</v>
@@ -7014,25 +7014,25 @@
         <v>30.43390707393399</v>
       </c>
       <c r="J36" t="n">
-        <v>30.43390707393399</v>
+        <v>54.7981338372213</v>
       </c>
       <c r="K36" t="n">
-        <v>30.43390707393399</v>
+        <v>223.0613211674321</v>
       </c>
       <c r="L36" t="n">
-        <v>318.0889236932636</v>
+        <v>496.4109802811681</v>
       </c>
       <c r="M36" t="n">
-        <v>694.7085237331967</v>
+        <v>873.0305803211013</v>
       </c>
       <c r="N36" t="n">
-        <v>976.342225401374</v>
+        <v>873.0305803211013</v>
       </c>
       <c r="O36" t="n">
-        <v>1288.313760533885</v>
+        <v>1185.002115453613</v>
       </c>
       <c r="P36" t="n">
-        <v>1521.6953536967</v>
+        <v>1418.383708616427</v>
       </c>
       <c r="Q36" t="n">
         <v>1521.6953536967</v>
@@ -7041,25 +7041,25 @@
         <v>1521.6953536967</v>
       </c>
       <c r="S36" t="n">
-        <v>1521.6953536967</v>
+        <v>1353.313582000801</v>
       </c>
       <c r="T36" t="n">
-        <v>1521.6953536967</v>
+        <v>1353.313582000801</v>
       </c>
       <c r="U36" t="n">
-        <v>1521.6953536967</v>
+        <v>1353.313582000801</v>
       </c>
       <c r="V36" t="n">
-        <v>1521.6953536967</v>
+        <v>1118.161473769058</v>
       </c>
       <c r="W36" t="n">
-        <v>1267.457996968498</v>
+        <v>863.9241170408568</v>
       </c>
       <c r="X36" t="n">
-        <v>1059.606496762965</v>
+        <v>850.6412807565443</v>
       </c>
       <c r="Y36" t="n">
-        <v>851.8461979980113</v>
+        <v>642.8809819915905</v>
       </c>
     </row>
     <row r="37">
@@ -7096,10 +7096,10 @@
         <v>30.43390707393399</v>
       </c>
       <c r="K37" t="n">
-        <v>34.26761491947719</v>
+        <v>34.26761491947718</v>
       </c>
       <c r="L37" t="n">
-        <v>94.69987566531981</v>
+        <v>94.69987566531979</v>
       </c>
       <c r="M37" t="n">
         <v>168.8063444881259</v>
@@ -7148,40 +7148,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>872.4784887810899</v>
+        <v>872.4784887810906</v>
       </c>
       <c r="C38" t="n">
-        <v>743.2932336852418</v>
+        <v>743.2932336852425</v>
       </c>
       <c r="D38" t="n">
-        <v>624.8047969230549</v>
+        <v>624.8047969230556</v>
       </c>
       <c r="E38" t="n">
-        <v>478.7938061693743</v>
+        <v>478.7938061693749</v>
       </c>
       <c r="F38" t="n">
-        <v>307.5851632243304</v>
+        <v>307.5851632243309</v>
       </c>
       <c r="G38" t="n">
-        <v>128.371395637272</v>
+        <v>128.3713956372717</v>
       </c>
       <c r="H38" t="n">
-        <v>30.43390707393442</v>
+        <v>30.43390707393401</v>
       </c>
       <c r="I38" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393401</v>
       </c>
       <c r="J38" t="n">
-        <v>60.75260108020956</v>
+        <v>60.75260108020957</v>
       </c>
       <c r="K38" t="n">
-        <v>226.9372683326556</v>
+        <v>226.9372683326557</v>
       </c>
       <c r="L38" t="n">
-        <v>485.3806706550284</v>
+        <v>485.3806706550283</v>
       </c>
       <c r="M38" t="n">
-        <v>789.5552979241024</v>
+        <v>789.5552979241023</v>
       </c>
       <c r="N38" t="n">
         <v>1084.019791121359</v>
@@ -7196,28 +7196,28 @@
         <v>1521.6953536967</v>
       </c>
       <c r="R38" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696701</v>
       </c>
       <c r="S38" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696701</v>
       </c>
       <c r="T38" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696701</v>
       </c>
       <c r="U38" t="n">
-        <v>1507.62865247297</v>
+        <v>1507.628652472971</v>
       </c>
       <c r="V38" t="n">
-        <v>1416.343026973963</v>
+        <v>1416.343026973964</v>
       </c>
       <c r="W38" t="n">
         <v>1303.351633548413</v>
       </c>
       <c r="X38" t="n">
-        <v>1169.663137131896</v>
+        <v>1169.663137131897</v>
       </c>
       <c r="Y38" t="n">
-        <v>1019.301067000648</v>
+        <v>1019.301067000649</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>659.5933589948828</v>
+        <v>363.9748002674575</v>
       </c>
       <c r="C39" t="n">
-        <v>485.1403297137558</v>
+        <v>189.5217709863305</v>
       </c>
       <c r="D39" t="n">
-        <v>336.2059200525046</v>
+        <v>168.8936319929519</v>
       </c>
       <c r="E39" t="n">
-        <v>176.968465047049</v>
+        <v>168.8936319929519</v>
       </c>
       <c r="F39" t="n">
-        <v>30.43390707393399</v>
+        <v>168.8936319929519</v>
       </c>
       <c r="G39" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393401</v>
       </c>
       <c r="H39" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393401</v>
       </c>
       <c r="I39" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393401</v>
       </c>
       <c r="J39" t="n">
-        <v>30.43390707393399</v>
+        <v>54.79813383722131</v>
       </c>
       <c r="K39" t="n">
-        <v>30.43390707393399</v>
+        <v>54.79813383722131</v>
       </c>
       <c r="L39" t="n">
-        <v>318.0889236932636</v>
+        <v>342.4531504565509</v>
       </c>
       <c r="M39" t="n">
-        <v>694.7085237331967</v>
+        <v>719.0727504964843</v>
       </c>
       <c r="N39" t="n">
-        <v>1071.32812377313</v>
+        <v>1095.692350536418</v>
       </c>
       <c r="O39" t="n">
-        <v>1383.299658905641</v>
+        <v>1185.002115453614</v>
       </c>
       <c r="P39" t="n">
-        <v>1521.6953536967</v>
+        <v>1418.383708616428</v>
       </c>
       <c r="Q39" t="n">
-        <v>1521.6953536967</v>
+        <v>1521.695353696701</v>
       </c>
       <c r="R39" t="n">
-        <v>1521.6953536967</v>
+        <v>1437.357835893787</v>
       </c>
       <c r="S39" t="n">
-        <v>1521.6953536967</v>
+        <v>1268.976064197888</v>
       </c>
       <c r="T39" t="n">
-        <v>1521.6953536967</v>
+        <v>1268.976064197888</v>
       </c>
       <c r="U39" t="n">
-        <v>1521.6953536967</v>
+        <v>1268.976064197888</v>
       </c>
       <c r="V39" t="n">
-        <v>1497.657851713639</v>
+        <v>1033.823955966146</v>
       </c>
       <c r="W39" t="n">
-        <v>1243.420494985437</v>
+        <v>779.5865992379443</v>
       </c>
       <c r="X39" t="n">
-        <v>1035.568994779905</v>
+        <v>571.7350990324114</v>
       </c>
       <c r="Y39" t="n">
-        <v>827.8086960149508</v>
+        <v>363.9748002674575</v>
       </c>
     </row>
     <row r="40">
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>212.6893458703305</v>
+        <v>30.43390707393401</v>
       </c>
       <c r="C40" t="n">
-        <v>212.6893458703305</v>
+        <v>30.43390707393401</v>
       </c>
       <c r="D40" t="n">
-        <v>199.8944834607965</v>
+        <v>30.43390707393401</v>
       </c>
       <c r="E40" t="n">
-        <v>199.8944834607965</v>
+        <v>30.43390707393401</v>
       </c>
       <c r="F40" t="n">
-        <v>199.8944834607965</v>
+        <v>30.43390707393401</v>
       </c>
       <c r="G40" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393401</v>
       </c>
       <c r="H40" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393401</v>
       </c>
       <c r="I40" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393401</v>
       </c>
       <c r="J40" t="n">
-        <v>30.43390707393399</v>
+        <v>30.43390707393401</v>
       </c>
       <c r="K40" t="n">
-        <v>34.26761491947719</v>
+        <v>34.2676149194772</v>
       </c>
       <c r="L40" t="n">
         <v>94.69987566531981</v>
@@ -7363,19 +7363,19 @@
         <v>326.6579621681117</v>
       </c>
       <c r="U40" t="n">
-        <v>277.2364804240508</v>
+        <v>277.2364804240507</v>
       </c>
       <c r="V40" t="n">
-        <v>262.3292540627275</v>
+        <v>80.0738152663311</v>
       </c>
       <c r="W40" t="n">
-        <v>212.6893458703305</v>
+        <v>30.43390707393401</v>
       </c>
       <c r="X40" t="n">
-        <v>212.6893458703305</v>
+        <v>30.43390707393401</v>
       </c>
       <c r="Y40" t="n">
-        <v>212.6893458703305</v>
+        <v>30.43390707393401</v>
       </c>
     </row>
     <row r="41">
@@ -7385,55 +7385,55 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>976.4306445829033</v>
+        <v>976.4306445829042</v>
       </c>
       <c r="C41" t="n">
-        <v>830.5994560416666</v>
+        <v>830.5994560416675</v>
       </c>
       <c r="D41" t="n">
-        <v>695.4650858340913</v>
+        <v>695.4650858340921</v>
       </c>
       <c r="E41" t="n">
-        <v>532.8081616350222</v>
+        <v>532.8081616350229</v>
       </c>
       <c r="F41" t="n">
-        <v>344.9535852445897</v>
+        <v>344.9535852445904</v>
       </c>
       <c r="G41" t="n">
-        <v>149.0938842121431</v>
+        <v>149.093884212143</v>
       </c>
       <c r="H41" t="n">
         <v>34.51046220341689</v>
       </c>
       <c r="I41" t="n">
-        <v>63.97560257890035</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="J41" t="n">
-        <v>94.29429658517591</v>
+        <v>64.82915620969244</v>
       </c>
       <c r="K41" t="n">
-        <v>260.478963837622</v>
+        <v>231.0138234621385</v>
       </c>
       <c r="L41" t="n">
-        <v>518.9223661599947</v>
+        <v>489.4572257845112</v>
       </c>
       <c r="M41" t="n">
-        <v>823.0969934290687</v>
+        <v>793.6318530535852</v>
       </c>
       <c r="N41" t="n">
-        <v>1117.561486626325</v>
+        <v>1088.096346250842</v>
       </c>
       <c r="O41" t="n">
-        <v>1350.428319691895</v>
+        <v>1320.963179316412</v>
       </c>
       <c r="P41" t="n">
-        <v>1511.500391241233</v>
+        <v>1681.786452210411</v>
       </c>
       <c r="Q41" t="n">
-        <v>1600.930365825903</v>
+        <v>1725.523110170844</v>
       </c>
       <c r="R41" t="n">
-        <v>1702.445641600257</v>
+        <v>1725.523110170844</v>
       </c>
       <c r="S41" t="n">
         <v>1725.523110170844</v>
@@ -7442,19 +7442,19 @@
         <v>1725.523110170844</v>
       </c>
       <c r="U41" t="n">
-        <v>1694.810475501726</v>
+        <v>1694.810475501727</v>
       </c>
       <c r="V41" t="n">
         <v>1586.878916557331</v>
       </c>
       <c r="W41" t="n">
-        <v>1457.241589686391</v>
+        <v>1457.241589686392</v>
       </c>
       <c r="X41" t="n">
-        <v>1306.907159824487</v>
+        <v>1306.907159824488</v>
       </c>
       <c r="Y41" t="n">
-        <v>1139.89915624785</v>
+        <v>1139.899156247851</v>
       </c>
     </row>
     <row r="42">
@@ -7464,10 +7464,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>663.6699141243657</v>
+        <v>653.8984842931138</v>
       </c>
       <c r="C42" t="n">
-        <v>489.2168848432387</v>
+        <v>479.4454550119868</v>
       </c>
       <c r="D42" t="n">
         <v>340.2824751819874</v>
@@ -7497,13 +7497,13 @@
         <v>490.4286661529572</v>
       </c>
       <c r="M42" t="n">
-        <v>878.0877243774199</v>
+        <v>766.5437285079262</v>
       </c>
       <c r="N42" t="n">
-        <v>1291.713977745012</v>
+        <v>1180.169981875519</v>
       </c>
       <c r="O42" t="n">
-        <v>1603.685512877524</v>
+        <v>1492.14151700803</v>
       </c>
       <c r="P42" t="n">
         <v>1725.523110170844</v>
@@ -7515,25 +7515,25 @@
         <v>1725.523110170844</v>
       </c>
       <c r="S42" t="n">
-        <v>1719.923510367875</v>
+        <v>1725.523110170844</v>
       </c>
       <c r="T42" t="n">
-        <v>1518.829640981023</v>
+        <v>1524.429240783992</v>
       </c>
       <c r="U42" t="n">
-        <v>1513.75518667569</v>
+        <v>1296.223458079484</v>
       </c>
       <c r="V42" t="n">
-        <v>1501.734406843122</v>
+        <v>1061.071349847741</v>
       </c>
       <c r="W42" t="n">
-        <v>1247.497050114921</v>
+        <v>1029.965321518715</v>
       </c>
       <c r="X42" t="n">
-        <v>1039.645549909388</v>
+        <v>822.1138213131819</v>
       </c>
       <c r="Y42" t="n">
-        <v>831.8852511444338</v>
+        <v>822.1138213131819</v>
       </c>
     </row>
     <row r="43">
@@ -7570,43 +7570,43 @@
         <v>34.51046220341689</v>
       </c>
       <c r="K43" t="n">
-        <v>38.34417004896008</v>
+        <v>38.34417004896007</v>
       </c>
       <c r="L43" t="n">
-        <v>98.77643079480271</v>
+        <v>98.77643079480268</v>
       </c>
       <c r="M43" t="n">
         <v>172.8828996176088</v>
       </c>
       <c r="N43" t="n">
-        <v>250.6618986697638</v>
+        <v>250.6618986697637</v>
       </c>
       <c r="O43" t="n">
         <v>306.4870976757306</v>
       </c>
       <c r="P43" t="n">
-        <v>330.7345172975947</v>
+        <v>330.7345172975946</v>
       </c>
       <c r="Q43" t="n">
-        <v>330.7345172975947</v>
+        <v>262.7338809769368</v>
       </c>
       <c r="R43" t="n">
-        <v>330.7345172975947</v>
+        <v>262.7338809769368</v>
       </c>
       <c r="S43" t="n">
-        <v>330.7345172975947</v>
+        <v>262.7338809769368</v>
       </c>
       <c r="T43" t="n">
-        <v>203.275101336206</v>
+        <v>256.5882513279715</v>
       </c>
       <c r="U43" t="n">
-        <v>137.2076861467565</v>
+        <v>190.5208361385221</v>
       </c>
       <c r="V43" t="n">
         <v>105.6545263400447</v>
       </c>
       <c r="W43" t="n">
-        <v>39.36868470225917</v>
+        <v>39.36868470225914</v>
       </c>
       <c r="X43" t="n">
         <v>34.51046220341689</v>
@@ -7622,49 +7622,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>976.4306445829042</v>
+        <v>976.430644582903</v>
       </c>
       <c r="C44" t="n">
-        <v>830.5994560416675</v>
+        <v>830.5994560416666</v>
       </c>
       <c r="D44" t="n">
-        <v>695.4650858340922</v>
+        <v>695.4650858340913</v>
       </c>
       <c r="E44" t="n">
-        <v>532.8081616350229</v>
+        <v>532.8081616350222</v>
       </c>
       <c r="F44" t="n">
-        <v>344.9535852445904</v>
+        <v>344.9535852445896</v>
       </c>
       <c r="G44" t="n">
-        <v>149.093884212143</v>
+        <v>149.0938842121431</v>
       </c>
       <c r="H44" t="n">
         <v>34.51046220341689</v>
       </c>
       <c r="I44" t="n">
-        <v>63.97560257890038</v>
+        <v>34.51046220341689</v>
       </c>
       <c r="J44" t="n">
-        <v>94.29429658517594</v>
+        <v>64.82915620969244</v>
       </c>
       <c r="K44" t="n">
-        <v>260.478963837622</v>
+        <v>231.0138234621385</v>
       </c>
       <c r="L44" t="n">
-        <v>518.9223661599947</v>
+        <v>489.4572257845112</v>
       </c>
       <c r="M44" t="n">
-        <v>823.0969934290687</v>
+        <v>793.6318530535852</v>
       </c>
       <c r="N44" t="n">
-        <v>1117.561486626325</v>
+        <v>1088.096346250842</v>
       </c>
       <c r="O44" t="n">
-        <v>1350.428319691895</v>
+        <v>1320.963179316412</v>
       </c>
       <c r="P44" t="n">
-        <v>1511.500391241233</v>
+        <v>1557.19370786547</v>
       </c>
       <c r="Q44" t="n">
         <v>1600.930365825903</v>
@@ -7679,19 +7679,19 @@
         <v>1725.523110170844</v>
       </c>
       <c r="U44" t="n">
-        <v>1694.810475501727</v>
+        <v>1694.810475501726</v>
       </c>
       <c r="V44" t="n">
         <v>1586.878916557331</v>
       </c>
       <c r="W44" t="n">
-        <v>1457.241589686392</v>
+        <v>1457.241589686391</v>
       </c>
       <c r="X44" t="n">
-        <v>1306.907159824488</v>
+        <v>1306.907159824486</v>
       </c>
       <c r="Y44" t="n">
-        <v>1139.899156247851</v>
+        <v>1139.89915624785</v>
       </c>
     </row>
     <row r="45">
@@ -7701,19 +7701,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>663.6699141243657</v>
+        <v>385.8993666006596</v>
       </c>
       <c r="C45" t="n">
-        <v>489.2168848432387</v>
+        <v>385.8993666006596</v>
       </c>
       <c r="D45" t="n">
-        <v>340.2824751819874</v>
+        <v>385.8993666006596</v>
       </c>
       <c r="E45" t="n">
-        <v>181.0450201765319</v>
+        <v>319.5047450955498</v>
       </c>
       <c r="F45" t="n">
-        <v>34.51046220341689</v>
+        <v>172.9701871224348</v>
       </c>
       <c r="G45" t="n">
         <v>34.51046220341689</v>
@@ -7728,13 +7728,13 @@
         <v>34.51046220341689</v>
       </c>
       <c r="K45" t="n">
-        <v>34.51046220341689</v>
+        <v>202.7736495336277</v>
       </c>
       <c r="L45" t="n">
-        <v>322.1654788227464</v>
+        <v>275.5730252031908</v>
       </c>
       <c r="M45" t="n">
-        <v>709.8245370472091</v>
+        <v>663.2320834276535</v>
       </c>
       <c r="N45" t="n">
         <v>1076.858336795246</v>
@@ -7749,28 +7749,28 @@
         <v>1725.523110170844</v>
       </c>
       <c r="R45" t="n">
-        <v>1725.523110170844</v>
+        <v>1641.185592367931</v>
       </c>
       <c r="S45" t="n">
-        <v>1725.523110170844</v>
+        <v>1472.803820672032</v>
       </c>
       <c r="T45" t="n">
-        <v>1725.523110170844</v>
+        <v>1271.70995128518</v>
       </c>
       <c r="U45" t="n">
-        <v>1720.448655865511</v>
+        <v>1043.504168580672</v>
       </c>
       <c r="V45" t="n">
-        <v>1501.734406843122</v>
+        <v>808.3520603489292</v>
       </c>
       <c r="W45" t="n">
-        <v>1247.497050114921</v>
+        <v>554.1147036207276</v>
       </c>
       <c r="X45" t="n">
-        <v>1039.645549909388</v>
+        <v>554.1147036207276</v>
       </c>
       <c r="Y45" t="n">
-        <v>831.8852511444338</v>
+        <v>554.1147036207276</v>
       </c>
     </row>
     <row r="46">
@@ -7807,43 +7807,43 @@
         <v>34.51046220341689</v>
       </c>
       <c r="K46" t="n">
-        <v>38.34417004896008</v>
+        <v>38.34417004896007</v>
       </c>
       <c r="L46" t="n">
-        <v>98.77643079480271</v>
+        <v>98.77643079480268</v>
       </c>
       <c r="M46" t="n">
         <v>172.8828996176088</v>
       </c>
       <c r="N46" t="n">
-        <v>250.6618986697638</v>
+        <v>250.6618986697637</v>
       </c>
       <c r="O46" t="n">
         <v>306.4870976757306</v>
       </c>
       <c r="P46" t="n">
-        <v>330.7345172975947</v>
+        <v>330.7345172975946</v>
       </c>
       <c r="Q46" t="n">
-        <v>330.7345172975947</v>
+        <v>330.7345172975946</v>
       </c>
       <c r="R46" t="n">
-        <v>330.7345172975947</v>
+        <v>330.7345172975946</v>
       </c>
       <c r="S46" t="n">
-        <v>330.7345172975947</v>
+        <v>330.7345172975946</v>
       </c>
       <c r="T46" t="n">
-        <v>203.2751013362059</v>
+        <v>324.5888876486293</v>
       </c>
       <c r="U46" t="n">
-        <v>137.2076861467565</v>
+        <v>258.5214724591798</v>
       </c>
       <c r="V46" t="n">
-        <v>105.6545263400447</v>
+        <v>226.9683126524679</v>
       </c>
       <c r="W46" t="n">
-        <v>39.36868470225914</v>
+        <v>39.36868470225919</v>
       </c>
       <c r="X46" t="n">
         <v>34.51046220341689</v>
@@ -8769,16 +8769,16 @@
         <v>101.4807052764823</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>94.50242152751714</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>454.5540958868388</v>
+        <v>254.2535469453956</v>
       </c>
       <c r="N12" t="n">
-        <v>71.69855201032247</v>
+        <v>441.9619164368269</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>101.4807052764823</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9015,16 +9015,16 @@
         <v>454.5540958868388</v>
       </c>
       <c r="N15" t="n">
-        <v>151.4434189971765</v>
+        <v>441.9619164368269</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>78.73955651661683</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>263.3221669735452</v>
       </c>
       <c r="Q15" t="n">
-        <v>105.7220906850686</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9252,7 +9252,7 @@
         <v>454.5540958868389</v>
       </c>
       <c r="N18" t="n">
-        <v>61.53807801265198</v>
+        <v>61.53807801265199</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>101.4807052764823</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>94.50242152751716</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9489,13 +9489,13 @@
         <v>454.5540958868388</v>
       </c>
       <c r="N21" t="n">
-        <v>441.9619164368269</v>
+        <v>241.6613674953841</v>
       </c>
       <c r="O21" t="n">
-        <v>78.73955651661683</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>238.7118369096187</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>101.4807052764823</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>94.50242152751716</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>274.8949934127968</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>454.5540958868389</v>
+        <v>454.5540958868388</v>
       </c>
       <c r="N24" t="n">
-        <v>441.9619164368269</v>
+        <v>61.53807801265199</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>379.4124632104733</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>105.7220906850686</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -10662,19 +10662,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>101.4807052764823</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>94.50242152751716</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>356.390489237203</v>
       </c>
       <c r="M36" t="n">
         <v>454.5540958868388</v>
       </c>
       <c r="N36" t="n">
-        <v>346.0165645461644</v>
+        <v>61.53807801265199</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>105.7220906850686</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>101.4807052764823</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>94.50242152751716</v>
@@ -10908,19 +10908,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>454.5540958868388</v>
+        <v>454.554095886839</v>
       </c>
       <c r="N39" t="n">
-        <v>441.9619164368269</v>
+        <v>441.9619164368271</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>168.9514402713602</v>
       </c>
       <c r="P39" t="n">
-        <v>222.5174167492746</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>105.7220906850686</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11145,7 +11145,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>353.0343608515213</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11154,7 +11154,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>205.7920657414585</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>105.7220906850686</v>
@@ -11376,16 +11376,16 @@
         <v>101.4807052764823</v>
       </c>
       <c r="K45" t="n">
-        <v>94.50242152751716</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>153.8144453542001</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>432.2792898793559</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>251.017240630768</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23267,16 +23267,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>275.1594447089989</v>
+        <v>245.7973432929394</v>
       </c>
       <c r="G11" t="n">
         <v>283.0845181045931</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>202.6210018711096</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>59.42064602642682</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,13 +23309,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>33.13979205148156</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>196.0356574374223</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>217.5243676847005</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>254.521337623341</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>251.017240630768</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>233.556290738295</v>
+        <v>233.5562907382949</v>
       </c>
       <c r="D14" t="n">
-        <v>222.9664405879704</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>250.2137690395492</v>
+        <v>250.2137690395491</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>275.1594447089988</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>283.084518104593</v>
       </c>
       <c r="H14" t="n">
-        <v>202.6210018711096</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>89.18341408247076</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>119.5889224048976</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>185.89619798373</v>
       </c>
       <c r="W14" t="n">
-        <v>113.2844788434476</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>254.5213376233409</v>
       </c>
     </row>
     <row r="15">
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>-7.389644451905042e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>997456.300077893</v>
+        <v>997456.3000778931</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>997456.3000778931</v>
+        <v>997456.3000778932</v>
       </c>
     </row>
     <row r="7">
@@ -26314,46 +26314,46 @@
         <v>430120.0778264451</v>
       </c>
       <c r="C2" t="n">
+        <v>430120.077826445</v>
+      </c>
+      <c r="D2" t="n">
         <v>430120.0778264452</v>
       </c>
-      <c r="D2" t="n">
-        <v>430120.0778264451</v>
-      </c>
       <c r="E2" t="n">
-        <v>369096.1143616323</v>
+        <v>369096.1143616321</v>
       </c>
       <c r="F2" t="n">
-        <v>369096.1143616322</v>
+        <v>369096.1143616324</v>
       </c>
       <c r="G2" t="n">
         <v>431046.9291787486</v>
       </c>
       <c r="H2" t="n">
-        <v>431046.9291787486</v>
+        <v>431046.9291787487</v>
       </c>
       <c r="I2" t="n">
         <v>431046.9291787486</v>
       </c>
       <c r="J2" t="n">
-        <v>431046.929178749</v>
+        <v>431046.9291787478</v>
       </c>
       <c r="K2" t="n">
-        <v>431046.9291787482</v>
+        <v>431046.9291787484</v>
       </c>
       <c r="L2" t="n">
-        <v>431046.9291787479</v>
+        <v>431046.929178748</v>
       </c>
       <c r="M2" t="n">
+        <v>431046.9291787486</v>
+      </c>
+      <c r="N2" t="n">
         <v>431046.9291787487</v>
-      </c>
-      <c r="N2" t="n">
-        <v>431046.9291787485</v>
       </c>
       <c r="O2" t="n">
         <v>431046.9291787484</v>
       </c>
       <c r="P2" t="n">
-        <v>431046.9291787485</v>
+        <v>431046.9291787486</v>
       </c>
     </row>
     <row r="3">
@@ -26375,10 +26375,10 @@
         <v>319206.1449189903</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>84530.31055472432</v>
+        <v>84530.3105547242</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>116916.0581612104</v>
+        <v>116916.0581612106</v>
       </c>
       <c r="K3" t="n">
-        <v>1.00822035165038e-10</v>
+        <v>5.5409215677243e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>84530.31055472432</v>
+        <v>84530.3105547242</v>
       </c>
       <c r="M3" t="n">
         <v>87131.09894239518</v>
@@ -26430,16 +26430,16 @@
         <v>302289.1079395697</v>
       </c>
       <c r="G4" t="n">
-        <v>369405.3002414156</v>
+        <v>369405.3002414155</v>
       </c>
       <c r="H4" t="n">
         <v>369405.3002414156</v>
       </c>
       <c r="I4" t="n">
-        <v>369405.3002414156</v>
+        <v>369405.3002414155</v>
       </c>
       <c r="J4" t="n">
-        <v>367843.9154727355</v>
+        <v>367843.9154727357</v>
       </c>
       <c r="K4" t="n">
         <v>367843.9154727357</v>
@@ -26448,7 +26448,7 @@
         <v>367843.9154727357</v>
       </c>
       <c r="M4" t="n">
-        <v>369405.3002414155</v>
+        <v>369405.3002414156</v>
       </c>
       <c r="N4" t="n">
         <v>369405.3002414156</v>
@@ -26457,7 +26457,7 @@
         <v>368260.9042823385</v>
       </c>
       <c r="P4" t="n">
-        <v>368260.9042823386</v>
+        <v>368260.9042823385</v>
       </c>
     </row>
     <row r="5">
@@ -26482,16 +26482,16 @@
         <v>36923.20336678313</v>
       </c>
       <c r="G5" t="n">
-        <v>45806.17671431453</v>
+        <v>45806.17671431452</v>
       </c>
       <c r="H5" t="n">
-        <v>45806.17671431453</v>
+        <v>45806.17671431452</v>
       </c>
       <c r="I5" t="n">
-        <v>45806.17671431453</v>
+        <v>45806.17671431451</v>
       </c>
       <c r="J5" t="n">
-        <v>57382.03161561133</v>
+        <v>57382.03161561136</v>
       </c>
       <c r="K5" t="n">
         <v>57382.03161561136</v>
@@ -26500,7 +26500,7 @@
         <v>57382.03161561136</v>
       </c>
       <c r="M5" t="n">
-        <v>45806.17671431452</v>
+        <v>45806.17671431451</v>
       </c>
       <c r="N5" t="n">
         <v>45806.17671431453</v>
@@ -26509,7 +26509,7 @@
         <v>47518.94570368936</v>
       </c>
       <c r="P5" t="n">
-        <v>47518.94570368936</v>
+        <v>47518.94570368935</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-34406.03161623075</v>
+        <v>-34410.44519409887</v>
       </c>
       <c r="C6" t="n">
-        <v>-34406.03161623069</v>
+        <v>-34410.44519409892</v>
       </c>
       <c r="D6" t="n">
-        <v>-34406.03161623075</v>
+        <v>-34410.44519409881</v>
       </c>
       <c r="E6" t="n">
-        <v>-289322.3418637109</v>
+        <v>-289617.3457437925</v>
       </c>
       <c r="F6" t="n">
-        <v>29883.80305527934</v>
+        <v>29588.79917519795</v>
       </c>
       <c r="G6" t="n">
-        <v>-68694.85833170582</v>
+        <v>-68694.85833170559</v>
       </c>
       <c r="H6" t="n">
-        <v>15835.45222301848</v>
+        <v>15835.4522230186</v>
       </c>
       <c r="I6" t="n">
+        <v>15835.45222301861</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-111095.0760708098</v>
+      </c>
+      <c r="K6" t="n">
+        <v>5820.982090401325</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-78709.32846432322</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-71295.64671937669</v>
+      </c>
+      <c r="N6" t="n">
         <v>15835.45222301854</v>
-      </c>
-      <c r="J6" t="n">
-        <v>-111095.0760708083</v>
-      </c>
-      <c r="K6" t="n">
-        <v>5820.982090400976</v>
-      </c>
-      <c r="L6" t="n">
-        <v>-78709.32846432345</v>
-      </c>
-      <c r="M6" t="n">
-        <v>-71295.64671937653</v>
-      </c>
-      <c r="N6" t="n">
-        <v>15835.45222301842</v>
       </c>
       <c r="O6" t="n">
         <v>-19317.11754238396</v>
       </c>
       <c r="P6" t="n">
-        <v>15267.07919272053</v>
+        <v>15267.07919272083</v>
       </c>
     </row>
   </sheetData>
@@ -26698,16 +26698,16 @@
         <v>131.7166010327126</v>
       </c>
       <c r="G2" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="H2" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="I2" t="n">
         <v>237.3794892261179</v>
       </c>
       <c r="J2" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="K2" t="n">
         <v>150.044060278452</v>
@@ -26719,7 +26719,7 @@
         <v>237.3794892261179</v>
       </c>
       <c r="N2" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="O2" t="n">
         <v>220.9000151151833</v>
@@ -26796,10 +26796,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>380.423838424175</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="F4" t="n">
-        <v>380.423838424175</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="G4" t="n">
         <v>380.423838424175</v>
@@ -26808,22 +26808,22 @@
         <v>380.423838424175</v>
       </c>
       <c r="I4" t="n">
-        <v>380.423838424175</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="J4" t="n">
-        <v>691.5760929882889</v>
+        <v>691.5760929882896</v>
       </c>
       <c r="K4" t="n">
-        <v>691.5760929882895</v>
+        <v>691.5760929882896</v>
       </c>
       <c r="L4" t="n">
-        <v>691.5760929882895</v>
+        <v>691.5760929882896</v>
       </c>
       <c r="M4" t="n">
         <v>380.4238384241749</v>
       </c>
       <c r="N4" t="n">
-        <v>380.4238384241749</v>
+        <v>380.4238384241751</v>
       </c>
       <c r="O4" t="n">
         <v>431.3807775427111</v>
@@ -26917,10 +26917,10 @@
         <v>131.7166010327126</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>105.6628881934054</v>
+        <v>105.6628881934053</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>44.38117208504676</v>
+        <v>44.3811720850467</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>105.6628881934054</v>
+        <v>105.6628881934053</v>
       </c>
       <c r="M2" t="n">
-        <v>87.33542894766586</v>
+        <v>87.33542894766589</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>27.90169797411206</v>
+        <v>27.90169797411212</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>380.423838424175</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,22 +27033,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>311.1522545641139</v>
+        <v>311.1522545641147</v>
       </c>
       <c r="K4" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>69.27158386006045</v>
+        <v>69.27158386006028</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>50.95693911853618</v>
+        <v>50.95693911853596</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>131.7166010327126</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>105.6628881934054</v>
+        <v>105.6628881934053</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>44.38117208504676</v>
+        <v>44.3811720850467</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>380.423838424175</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28172,16 +28172,16 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>131.7166010327126</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>15.76699017642196</v>
       </c>
       <c r="H12" t="n">
         <v>109.6433667609296</v>
@@ -28214,25 +28214,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>83.49414262488439</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="T12" t="n">
-        <v>99.26113280130595</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="U12" t="n">
         <v>131.7166010327126</v>
       </c>
       <c r="V12" t="n">
-        <v>131.7166010327126</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>131.7166010327126</v>
       </c>
       <c r="X12" t="n">
-        <v>131.7166010327126</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>131.7166010327126</v>
@@ -28269,10 +28269,10 @@
         <v>131.7166010327126</v>
       </c>
       <c r="J13" t="n">
-        <v>116.6552291119094</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="L13" t="n">
         <v>131.7166010327126</v>
@@ -28281,13 +28281,13 @@
         <v>131.7166010327126</v>
       </c>
       <c r="N13" t="n">
-        <v>131.7166010327126</v>
+        <v>116.6552291119095</v>
       </c>
       <c r="O13" t="n">
         <v>131.7166010327126</v>
       </c>
       <c r="P13" t="n">
-        <v>131.7166010327126</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>131.7166010327126</v>
@@ -28403,7 +28403,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="C15" t="n">
         <v>131.7166010327126</v>
@@ -28415,10 +28415,10 @@
         <v>131.7166010327126</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="G15" t="n">
-        <v>99.26113280130602</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="H15" t="n">
         <v>109.6433667609296</v>
@@ -28454,22 +28454,22 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
         <v>131.7166010327126</v>
       </c>
-      <c r="T15" t="n">
-        <v>131.7166010327126</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
       <c r="V15" t="n">
-        <v>131.7166010327126</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>131.7166010327126</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>99.26113280130556</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -28506,19 +28506,19 @@
         <v>131.7166010327126</v>
       </c>
       <c r="J16" t="n">
-        <v>131.7166010327126</v>
+        <v>116.6552291119078</v>
       </c>
       <c r="K16" t="n">
         <v>131.7166010327126</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="M16" t="n">
         <v>131.7166010327126</v>
       </c>
       <c r="N16" t="n">
-        <v>131.7166010327126</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>131.7166010327126</v>
@@ -28527,7 +28527,7 @@
         <v>131.7166010327126</v>
       </c>
       <c r="Q16" t="n">
-        <v>116.6552291119093</v>
+        <v>131.7166010327126</v>
       </c>
       <c r="R16" t="n">
         <v>131.7166010327126</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="C17" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="D17" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="E17" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="F17" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="G17" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="H17" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="I17" t="n">
         <v>191.1372470591394</v>
@@ -28618,19 +28618,19 @@
         <v>220.9000151151833</v>
       </c>
       <c r="U17" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="V17" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="W17" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="X17" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="Y17" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
     </row>
     <row r="18">
@@ -28640,7 +28640,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -28655,13 +28655,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.0751276698277</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28697,13 +28697,13 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>98.94068460882843</v>
+        <v>225.9237248774628</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>182.8556956459028</v>
       </c>
       <c r="W18" t="n">
-        <v>237.379489226118</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -28722,7 +28722,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -28743,7 +28743,7 @@
         <v>148.6838485916426</v>
       </c>
       <c r="J19" t="n">
-        <v>77.45106251930777</v>
+        <v>77.45106251930778</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28764,25 +28764,25 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>67.32062995745122</v>
+        <v>67.32062995745123</v>
       </c>
       <c r="R19" t="n">
         <v>167.1761804170862</v>
       </c>
       <c r="S19" t="n">
-        <v>206.9092461282029</v>
+        <v>220.0953094380075</v>
       </c>
       <c r="T19" t="n">
         <v>226.984188467659</v>
       </c>
       <c r="U19" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="V19" t="n">
-        <v>237.379489226118</v>
+        <v>56.94660481768554</v>
       </c>
       <c r="W19" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="C20" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="D20" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="E20" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="F20" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="G20" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="H20" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="I20" t="n">
         <v>191.1372470591394</v>
@@ -28855,19 +28855,19 @@
         <v>220.9000151151833</v>
       </c>
       <c r="U20" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="V20" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="W20" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="X20" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="Y20" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
     </row>
     <row r="21">
@@ -28883,22 +28883,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>114.248127538426</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>109.6433667609296</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28928,10 +28928,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>166.6979539789397</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>106.5137862378417</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.9237248774628</v>
@@ -28946,7 +28946,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -28956,7 +28956,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -28980,7 +28980,7 @@
         <v>148.6838485916426</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>77.45106251930778</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>67.32062995745123</v>
       </c>
       <c r="R22" t="n">
         <v>167.1761804170862</v>
@@ -29010,22 +29010,22 @@
         <v>220.0953094380075</v>
       </c>
       <c r="T22" t="n">
-        <v>191.3229965359854</v>
+        <v>226.984188467659</v>
       </c>
       <c r="U22" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="V22" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="W22" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>217.9837491255998</v>
       </c>
     </row>
     <row r="23">
@@ -29117,7 +29117,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -29132,10 +29132,10 @@
         <v>137.0751276698277</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>109.6433667609296</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>80.15602968011626</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29171,19 +29171,19 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>51.79998060047996</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>61.82697451987113</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -29217,7 +29217,7 @@
         <v>148.6838485916426</v>
       </c>
       <c r="J25" t="n">
-        <v>77.45106251930777</v>
+        <v>77.45106251930778</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29238,13 +29238,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>67.32062995745122</v>
+        <v>67.32062995745123</v>
       </c>
       <c r="R25" t="n">
         <v>167.1761804170862</v>
       </c>
       <c r="S25" t="n">
-        <v>220.0953094380075</v>
+        <v>39.66242502957516</v>
       </c>
       <c r="T25" t="n">
         <v>226.984188467659</v>
@@ -29256,7 +29256,7 @@
         <v>237.3794892261179</v>
       </c>
       <c r="W25" t="n">
-        <v>56.94660481768557</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="C26" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="D26" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="E26" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="F26" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="G26" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="H26" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="I26" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="J26" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="K26" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="L26" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="M26" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="N26" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="O26" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="P26" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="Q26" t="n">
-        <v>150.0440602784482</v>
+        <v>150.0440602784519</v>
       </c>
       <c r="R26" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="S26" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="T26" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="U26" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="V26" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="W26" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="X26" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="Y26" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
     </row>
     <row r="27">
@@ -29351,10 +29351,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>150.0440602784521</v>
+        <v>114.1068878039694</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -29363,13 +29363,13 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>137.0751276698277</v>
       </c>
       <c r="H27" t="n">
-        <v>109.6433667609296</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>80.15602968011626</v>
@@ -29399,10 +29399,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>66.03859081153909</v>
+        <v>150.044060278452</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -29417,7 +29417,7 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>150.0440602784521</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="C28" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="D28" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="E28" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="F28" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="G28" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="H28" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="I28" t="n">
-        <v>150.0440602784521</v>
+        <v>148.6838485916426</v>
       </c>
       <c r="J28" t="n">
-        <v>150.0440602784521</v>
+        <v>77.45106251930778</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>81.76229854286495</v>
       </c>
       <c r="M28" t="n">
-        <v>7.809089096910043</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="O28" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="R28" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="S28" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="T28" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="U28" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="V28" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="W28" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="X28" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
       <c r="Y28" t="n">
-        <v>150.0440602784521</v>
+        <v>150.044060278452</v>
       </c>
     </row>
     <row r="29">
@@ -29588,19 +29588,19 @@
         </is>
       </c>
       <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
         <v>150.044060278452</v>
       </c>
-      <c r="C30" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>137.0751276698277</v>
@@ -29636,22 +29636,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>4.463521043039833</v>
+      </c>
+      <c r="W30" t="n">
         <v>150.044060278452</v>
-      </c>
-      <c r="T30" t="n">
-        <v>66.03859081153951</v>
-      </c>
-      <c r="U30" t="n">
-        <v>0</v>
-      </c>
-      <c r="V30" t="n">
-        <v>0</v>
-      </c>
-      <c r="W30" t="n">
-        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -29673,13 +29673,13 @@
         <v>150.044060278452</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>150.044060278452</v>
       </c>
       <c r="E31" t="n">
         <v>150.044060278452</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>150.044060278452</v>
       </c>
       <c r="G31" t="n">
         <v>150.044060278452</v>
@@ -29691,28 +29691,28 @@
         <v>150.044060278452</v>
       </c>
       <c r="J31" t="n">
-        <v>77.45106251930777</v>
+        <v>77.45106251930778</v>
       </c>
       <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
         <v>150.044060278452</v>
-      </c>
-      <c r="L31" t="n">
-        <v>19.13305641436465</v>
       </c>
       <c r="M31" t="n">
         <v>150.044060278452</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>150.044060278452</v>
+        <v>13.08145689860499</v>
       </c>
       <c r="Q31" t="n">
-        <v>67.32062995745122</v>
+        <v>67.32062995745123</v>
       </c>
       <c r="R31" t="n">
         <v>150.044060278452</v>
@@ -29770,7 +29770,7 @@
         <v>150.044060278452</v>
       </c>
       <c r="J32" t="n">
-        <v>150.044060278452</v>
+        <v>150.0440602784523</v>
       </c>
       <c r="K32" t="n">
         <v>150.044060278452</v>
@@ -29782,7 +29782,7 @@
         <v>150.044060278452</v>
       </c>
       <c r="N32" t="n">
-        <v>150.0440602784512</v>
+        <v>150.044060278452</v>
       </c>
       <c r="O32" t="n">
         <v>150.044060278452</v>
@@ -29828,16 +29828,16 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>137.0751276698277</v>
@@ -29873,16 +29873,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>150.044060278452</v>
+        <v>4.463521043039862</v>
       </c>
       <c r="T33" t="n">
-        <v>66.03859081153951</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -29913,7 +29913,7 @@
         <v>150.044060278452</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>150.044060278452</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -29928,28 +29928,28 @@
         <v>148.6838485916426</v>
       </c>
       <c r="J34" t="n">
+        <v>77.45106251930778</v>
+      </c>
+      <c r="K34" t="n">
         <v>150.044060278452</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>150.044060278452</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>150.044060278452</v>
       </c>
       <c r="N34" t="n">
-        <v>150.044060278452</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>17.40241067112429</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>150.044060278452</v>
+        <v>86.38531079838644</v>
       </c>
       <c r="R34" t="n">
         <v>150.044060278452</v>
@@ -30065,10 +30065,10 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -30077,7 +30077,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>113.2780007065978</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>109.6433667609296</v>
@@ -30113,7 +30113,7 @@
         <v>83.4941426248844</v>
       </c>
       <c r="S36" t="n">
-        <v>166.6979539789397</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>199.0829306929842</v>
@@ -30122,13 +30122,13 @@
         <v>225.9237248774628</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>192.6229772820082</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -30165,7 +30165,7 @@
         <v>148.6838485916426</v>
       </c>
       <c r="J37" t="n">
-        <v>77.45106251930777</v>
+        <v>77.45106251930778</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30186,7 +30186,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>67.32062995745122</v>
+        <v>67.32062995745123</v>
       </c>
       <c r="R37" t="n">
         <v>167.1761804170862</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="C38" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="D38" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="E38" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="F38" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="G38" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="H38" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="I38" t="n">
         <v>191.1372470591394</v>
@@ -30268,7 +30268,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>118.359332514826</v>
+        <v>118.3593325148269</v>
       </c>
       <c r="S38" t="n">
         <v>197.5894408014587</v>
@@ -30277,19 +30277,19 @@
         <v>220.9000151151833</v>
       </c>
       <c r="U38" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="V38" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="W38" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="X38" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="Y38" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
     </row>
     <row r="39">
@@ -30299,22 +30299,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>127.0232079611939</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>109.6433667609296</v>
@@ -30347,10 +30347,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>166.6979539789397</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>199.0829306929842</v>
@@ -30359,7 +30359,7 @@
         <v>225.9237248774628</v>
       </c>
       <c r="V39" t="n">
-        <v>209.0034601861953</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -30384,7 +30384,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>135.9485592327738</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -30393,7 +30393,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.7659706229939</v>
       </c>
       <c r="H40" t="n">
         <v>160.2266402957612</v>
@@ -30402,7 +30402,7 @@
         <v>148.6838485916426</v>
       </c>
       <c r="J40" t="n">
-        <v>77.45106251930777</v>
+        <v>77.45106251930778</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30423,7 +30423,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>67.32062995745122</v>
+        <v>67.32062995745123</v>
       </c>
       <c r="R40" t="n">
         <v>167.1761804170862</v>
@@ -30435,13 +30435,13 @@
         <v>226.984188467659</v>
       </c>
       <c r="U40" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="V40" t="n">
-        <v>237.379489226118</v>
+        <v>56.94660481768557</v>
       </c>
       <c r="W40" t="n">
-        <v>237.379489226118</v>
+        <v>237.3794892261179</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -30478,7 +30478,7 @@
         <v>220.9000151151833</v>
       </c>
       <c r="I41" t="n">
-        <v>220.9000151151833</v>
+        <v>191.1372470591394</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30499,16 +30499,16 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>201.7688902471331</v>
       </c>
       <c r="Q41" t="n">
-        <v>46.15486527700742</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>220.9000151151833</v>
+        <v>118.359332514826</v>
       </c>
       <c r="S41" t="n">
-        <v>220.9000151151833</v>
+        <v>197.5894408014587</v>
       </c>
       <c r="T41" t="n">
         <v>220.9000151151833</v>
@@ -30542,7 +30542,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>9.673715532939354</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -30587,25 +30587,25 @@
         <v>83.4941426248844</v>
       </c>
       <c r="S42" t="n">
-        <v>161.1543501740002</v>
+        <v>166.6979539789397</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
         <v>220.9000151151833</v>
       </c>
-      <c r="V42" t="n">
-        <v>220.9000151151833</v>
-      </c>
-      <c r="W42" t="n">
-        <v>0</v>
-      </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -30639,7 +30639,7 @@
         <v>148.6838485916426</v>
       </c>
       <c r="J43" t="n">
-        <v>77.45106251930777</v>
+        <v>77.45106251930778</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30660,7 +30660,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>67.32062995745122</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>167.1761804170862</v>
@@ -30669,13 +30669,13 @@
         <v>220.0953094380075</v>
       </c>
       <c r="T43" t="n">
-        <v>100.7993666658842</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="U43" t="n">
         <v>220.9000151151833</v>
       </c>
       <c r="V43" t="n">
-        <v>220.9000151151833</v>
+        <v>168.1199966233353</v>
       </c>
       <c r="W43" t="n">
         <v>220.9000151151833</v>
@@ -30715,7 +30715,7 @@
         <v>220.9000151151833</v>
       </c>
       <c r="I44" t="n">
-        <v>220.9000151151833</v>
+        <v>191.1372470591394</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30736,10 +30736,10 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>75.9176333330511</v>
       </c>
       <c r="Q44" t="n">
-        <v>46.15486527700742</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>220.9000151151833</v>
@@ -30776,19 +30776,19 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>91.91440516534225</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.0751276698277</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>109.6433667609296</v>
@@ -30821,28 +30821,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>83.4941426248844</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>166.6979539789397</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>199.0829306929842</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>220.9000151151833</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>16.27348061725982</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -30876,7 +30876,7 @@
         <v>148.6838485916426</v>
       </c>
       <c r="J46" t="n">
-        <v>77.45106251930777</v>
+        <v>77.45106251930778</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30897,7 +30897,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>67.32062995745122</v>
+        <v>67.32062995745123</v>
       </c>
       <c r="R46" t="n">
         <v>167.1761804170862</v>
@@ -30906,7 +30906,7 @@
         <v>220.0953094380075</v>
       </c>
       <c r="T46" t="n">
-        <v>100.7993666658841</v>
+        <v>220.9000151151833</v>
       </c>
       <c r="U46" t="n">
         <v>220.9000151151833</v>
@@ -30915,7 +30915,7 @@
         <v>220.9000151151833</v>
       </c>
       <c r="W46" t="n">
-        <v>220.9000151151833</v>
+        <v>100.7993666658843</v>
       </c>
       <c r="X46" t="n">
         <v>220.9000151151833</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5016183778293627</v>
+        <v>0.5016183778293628</v>
       </c>
       <c r="H11" t="n">
-        <v>5.137199211944962</v>
+        <v>5.137199211944963</v>
       </c>
       <c r="I11" t="n">
-        <v>19.33864251126652</v>
+        <v>19.33864251126653</v>
       </c>
       <c r="J11" t="n">
-        <v>42.57423279529491</v>
+        <v>42.57423279529492</v>
       </c>
       <c r="K11" t="n">
-        <v>63.80773872881185</v>
+        <v>63.80773872881186</v>
       </c>
       <c r="L11" t="n">
-        <v>79.15914215930722</v>
+        <v>79.15914215930724</v>
       </c>
       <c r="M11" t="n">
-        <v>88.07979798603014</v>
+        <v>88.07979798603016</v>
       </c>
       <c r="N11" t="n">
         <v>89.50502120203784</v>
       </c>
       <c r="O11" t="n">
-        <v>84.5170534574971</v>
+        <v>84.51705345749711</v>
       </c>
       <c r="P11" t="n">
-        <v>72.1333497548347</v>
+        <v>72.13334975483471</v>
       </c>
       <c r="Q11" t="n">
-        <v>54.16914159882063</v>
+        <v>54.16914159882064</v>
       </c>
       <c r="R11" t="n">
-        <v>31.50978542632373</v>
+        <v>31.50978542632374</v>
       </c>
       <c r="S11" t="n">
         <v>11.43062878478661</v>
@@ -31792,7 +31792,7 @@
         <v>2.195834448948037</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04012947022634901</v>
+        <v>0.04012947022634902</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31847,16 +31847,16 @@
         <v>58.27465732422267</v>
       </c>
       <c r="M12" t="n">
-        <v>68.00377645935446</v>
+        <v>68.00377645935447</v>
       </c>
       <c r="N12" t="n">
         <v>69.80363407068134</v>
       </c>
       <c r="O12" t="n">
-        <v>63.85668792782762</v>
+        <v>63.85668792782763</v>
       </c>
       <c r="P12" t="n">
-        <v>51.25062176713476</v>
+        <v>51.25062176713477</v>
       </c>
       <c r="Q12" t="n">
         <v>34.25968340095297</v>
@@ -31865,7 +31865,7 @@
         <v>16.66369152775874</v>
       </c>
       <c r="S12" t="n">
-        <v>4.985217124898147</v>
+        <v>4.985217124898148</v>
       </c>
       <c r="T12" t="n">
         <v>1.081798001837402</v>
@@ -31920,13 +31920,13 @@
         <v>15.90811759736501</v>
       </c>
       <c r="K13" t="n">
-        <v>26.1419239930982</v>
+        <v>26.14192399309821</v>
       </c>
       <c r="L13" t="n">
         <v>33.45266236174712</v>
       </c>
       <c r="M13" t="n">
-        <v>35.27114205109486</v>
+        <v>35.27114205109487</v>
       </c>
       <c r="N13" t="n">
         <v>34.43247312799863</v>
@@ -31944,10 +31944,10 @@
         <v>10.11721096008323</v>
       </c>
       <c r="S13" t="n">
-        <v>3.92128859896473</v>
+        <v>3.921288598964731</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9614009606225474</v>
+        <v>0.9614009606225475</v>
       </c>
       <c r="U13" t="n">
         <v>0.01227320375262828</v>
@@ -31990,7 +31990,7 @@
         <v>0.5016183778293626</v>
       </c>
       <c r="H14" t="n">
-        <v>5.137199211944961</v>
+        <v>5.13719921194496</v>
       </c>
       <c r="I14" t="n">
         <v>19.33864251126652</v>
@@ -32002,25 +32002,25 @@
         <v>63.80773872881183</v>
       </c>
       <c r="L14" t="n">
-        <v>79.15914215930721</v>
+        <v>79.15914215930719</v>
       </c>
       <c r="M14" t="n">
-        <v>88.07979798603013</v>
+        <v>88.07979798603012</v>
       </c>
       <c r="N14" t="n">
         <v>89.50502120203781</v>
       </c>
       <c r="O14" t="n">
-        <v>84.51705345749708</v>
+        <v>84.51705345749707</v>
       </c>
       <c r="P14" t="n">
-        <v>72.13334975483468</v>
+        <v>72.13334975483467</v>
       </c>
       <c r="Q14" t="n">
-        <v>54.16914159882062</v>
+        <v>54.16914159882061</v>
       </c>
       <c r="R14" t="n">
-        <v>31.50978542632373</v>
+        <v>31.50978542632372</v>
       </c>
       <c r="S14" t="n">
         <v>11.43062878478661</v>
@@ -32072,7 +32072,7 @@
         <v>2.592077475566878</v>
       </c>
       <c r="I15" t="n">
-        <v>9.240603171298815</v>
+        <v>9.240603171298813</v>
       </c>
       <c r="J15" t="n">
         <v>25.35692139018443</v>
@@ -32081,16 +32081,16 @@
         <v>43.33901744684184</v>
       </c>
       <c r="L15" t="n">
-        <v>58.27465732422265</v>
+        <v>58.27465732422264</v>
       </c>
       <c r="M15" t="n">
         <v>68.00377645935444</v>
       </c>
       <c r="N15" t="n">
-        <v>69.80363407068133</v>
+        <v>69.80363407068131</v>
       </c>
       <c r="O15" t="n">
-        <v>63.85668792782761</v>
+        <v>63.8566879278276</v>
       </c>
       <c r="P15" t="n">
         <v>51.25062176713475</v>
@@ -32102,7 +32102,7 @@
         <v>16.66369152775873</v>
       </c>
       <c r="S15" t="n">
-        <v>4.985217124898147</v>
+        <v>4.985217124898146</v>
       </c>
       <c r="T15" t="n">
         <v>1.081798001837402</v>
@@ -32148,10 +32148,10 @@
         <v>0.2250087354648515</v>
       </c>
       <c r="H16" t="n">
-        <v>2.000532211678409</v>
+        <v>2.000532211678408</v>
       </c>
       <c r="I16" t="n">
-        <v>6.766626335615719</v>
+        <v>6.766626335615718</v>
       </c>
       <c r="J16" t="n">
         <v>15.908117597365</v>
@@ -32160,7 +32160,7 @@
         <v>26.1419239930982</v>
       </c>
       <c r="L16" t="n">
-        <v>33.45266236174712</v>
+        <v>33.45266236174711</v>
       </c>
       <c r="M16" t="n">
         <v>35.27114205109486</v>
@@ -32169,10 +32169,10 @@
         <v>34.43247312799862</v>
       </c>
       <c r="O16" t="n">
-        <v>31.80396199097739</v>
+        <v>31.80396199097738</v>
       </c>
       <c r="P16" t="n">
-        <v>27.2137837874944</v>
+        <v>27.21378378749439</v>
       </c>
       <c r="Q16" t="n">
         <v>18.84141329424316</v>
@@ -32184,7 +32184,7 @@
         <v>3.921288598964729</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9614009606225472</v>
+        <v>0.9614009606225471</v>
       </c>
       <c r="U16" t="n">
         <v>0.01227320375262828</v>
@@ -32227,7 +32227,7 @@
         <v>0.5016183778293626</v>
       </c>
       <c r="H17" t="n">
-        <v>5.137199211944961</v>
+        <v>5.13719921194496</v>
       </c>
       <c r="I17" t="n">
         <v>19.33864251126652</v>
@@ -32239,25 +32239,25 @@
         <v>63.80773872881183</v>
       </c>
       <c r="L17" t="n">
-        <v>79.15914215930721</v>
+        <v>79.15914215930719</v>
       </c>
       <c r="M17" t="n">
-        <v>88.07979798603013</v>
+        <v>88.07979798603012</v>
       </c>
       <c r="N17" t="n">
         <v>89.50502120203781</v>
       </c>
       <c r="O17" t="n">
-        <v>84.51705345749708</v>
+        <v>84.51705345749707</v>
       </c>
       <c r="P17" t="n">
-        <v>72.13334975483468</v>
+        <v>72.13334975483467</v>
       </c>
       <c r="Q17" t="n">
-        <v>54.16914159882062</v>
+        <v>54.16914159882061</v>
       </c>
       <c r="R17" t="n">
-        <v>31.50978542632373</v>
+        <v>31.50978542632372</v>
       </c>
       <c r="S17" t="n">
         <v>11.43062878478661</v>
@@ -32309,7 +32309,7 @@
         <v>2.592077475566878</v>
       </c>
       <c r="I18" t="n">
-        <v>9.240603171298815</v>
+        <v>9.240603171298813</v>
       </c>
       <c r="J18" t="n">
         <v>25.35692139018443</v>
@@ -32318,16 +32318,16 @@
         <v>43.33901744684184</v>
       </c>
       <c r="L18" t="n">
-        <v>58.27465732422265</v>
+        <v>58.27465732422264</v>
       </c>
       <c r="M18" t="n">
         <v>68.00377645935444</v>
       </c>
       <c r="N18" t="n">
-        <v>69.80363407068133</v>
+        <v>69.80363407068131</v>
       </c>
       <c r="O18" t="n">
-        <v>63.85668792782761</v>
+        <v>63.8566879278276</v>
       </c>
       <c r="P18" t="n">
         <v>51.25062176713475</v>
@@ -32339,7 +32339,7 @@
         <v>16.66369152775873</v>
       </c>
       <c r="S18" t="n">
-        <v>4.985217124898147</v>
+        <v>4.985217124898146</v>
       </c>
       <c r="T18" t="n">
         <v>1.081798001837402</v>
@@ -32385,10 +32385,10 @@
         <v>0.2250087354648515</v>
       </c>
       <c r="H19" t="n">
-        <v>2.000532211678409</v>
+        <v>2.000532211678408</v>
       </c>
       <c r="I19" t="n">
-        <v>6.766626335615719</v>
+        <v>6.766626335615718</v>
       </c>
       <c r="J19" t="n">
         <v>15.908117597365</v>
@@ -32397,7 +32397,7 @@
         <v>26.1419239930982</v>
       </c>
       <c r="L19" t="n">
-        <v>33.45266236174712</v>
+        <v>33.45266236174711</v>
       </c>
       <c r="M19" t="n">
         <v>35.27114205109486</v>
@@ -32406,10 +32406,10 @@
         <v>34.43247312799862</v>
       </c>
       <c r="O19" t="n">
-        <v>31.80396199097739</v>
+        <v>31.80396199097738</v>
       </c>
       <c r="P19" t="n">
-        <v>27.2137837874944</v>
+        <v>27.21378378749439</v>
       </c>
       <c r="Q19" t="n">
         <v>18.84141329424316</v>
@@ -32421,7 +32421,7 @@
         <v>3.921288598964729</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9614009606225472</v>
+        <v>0.9614009606225471</v>
       </c>
       <c r="U19" t="n">
         <v>0.01227320375262828</v>
@@ -32464,7 +32464,7 @@
         <v>0.5016183778293626</v>
       </c>
       <c r="H20" t="n">
-        <v>5.137199211944961</v>
+        <v>5.13719921194496</v>
       </c>
       <c r="I20" t="n">
         <v>19.33864251126652</v>
@@ -32476,25 +32476,25 @@
         <v>63.80773872881183</v>
       </c>
       <c r="L20" t="n">
-        <v>79.15914215930721</v>
+        <v>79.15914215930719</v>
       </c>
       <c r="M20" t="n">
-        <v>88.07979798603013</v>
+        <v>88.07979798603012</v>
       </c>
       <c r="N20" t="n">
         <v>89.50502120203781</v>
       </c>
       <c r="O20" t="n">
-        <v>84.51705345749708</v>
+        <v>84.51705345749707</v>
       </c>
       <c r="P20" t="n">
-        <v>72.13334975483468</v>
+        <v>72.13334975483467</v>
       </c>
       <c r="Q20" t="n">
-        <v>54.16914159882062</v>
+        <v>54.16914159882061</v>
       </c>
       <c r="R20" t="n">
-        <v>31.50978542632373</v>
+        <v>31.50978542632372</v>
       </c>
       <c r="S20" t="n">
         <v>11.43062878478661</v>
@@ -32546,7 +32546,7 @@
         <v>2.592077475566878</v>
       </c>
       <c r="I21" t="n">
-        <v>9.240603171298815</v>
+        <v>9.240603171298813</v>
       </c>
       <c r="J21" t="n">
         <v>25.35692139018443</v>
@@ -32555,16 +32555,16 @@
         <v>43.33901744684184</v>
       </c>
       <c r="L21" t="n">
-        <v>58.27465732422265</v>
+        <v>58.27465732422264</v>
       </c>
       <c r="M21" t="n">
         <v>68.00377645935444</v>
       </c>
       <c r="N21" t="n">
-        <v>69.80363407068133</v>
+        <v>69.80363407068131</v>
       </c>
       <c r="O21" t="n">
-        <v>63.85668792782761</v>
+        <v>63.8566879278276</v>
       </c>
       <c r="P21" t="n">
         <v>51.25062176713475</v>
@@ -32576,7 +32576,7 @@
         <v>16.66369152775873</v>
       </c>
       <c r="S21" t="n">
-        <v>4.985217124898147</v>
+        <v>4.985217124898146</v>
       </c>
       <c r="T21" t="n">
         <v>1.081798001837402</v>
@@ -32622,10 +32622,10 @@
         <v>0.2250087354648515</v>
       </c>
       <c r="H22" t="n">
-        <v>2.000532211678409</v>
+        <v>2.000532211678408</v>
       </c>
       <c r="I22" t="n">
-        <v>6.766626335615719</v>
+        <v>6.766626335615718</v>
       </c>
       <c r="J22" t="n">
         <v>15.908117597365</v>
@@ -32634,7 +32634,7 @@
         <v>26.1419239930982</v>
       </c>
       <c r="L22" t="n">
-        <v>33.45266236174712</v>
+        <v>33.45266236174711</v>
       </c>
       <c r="M22" t="n">
         <v>35.27114205109486</v>
@@ -32643,10 +32643,10 @@
         <v>34.43247312799862</v>
       </c>
       <c r="O22" t="n">
-        <v>31.80396199097739</v>
+        <v>31.80396199097738</v>
       </c>
       <c r="P22" t="n">
-        <v>27.2137837874944</v>
+        <v>27.21378378749439</v>
       </c>
       <c r="Q22" t="n">
         <v>18.84141329424316</v>
@@ -32658,7 +32658,7 @@
         <v>3.921288598964729</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9614009606225472</v>
+        <v>0.9614009606225471</v>
       </c>
       <c r="U22" t="n">
         <v>0.01227320375262828</v>
@@ -32701,7 +32701,7 @@
         <v>0.5016183778293626</v>
       </c>
       <c r="H23" t="n">
-        <v>5.137199211944961</v>
+        <v>5.13719921194496</v>
       </c>
       <c r="I23" t="n">
         <v>19.33864251126652</v>
@@ -32713,25 +32713,25 @@
         <v>63.80773872881183</v>
       </c>
       <c r="L23" t="n">
-        <v>79.15914215930721</v>
+        <v>79.15914215930719</v>
       </c>
       <c r="M23" t="n">
-        <v>88.07979798603013</v>
+        <v>88.07979798603012</v>
       </c>
       <c r="N23" t="n">
         <v>89.50502120203781</v>
       </c>
       <c r="O23" t="n">
-        <v>84.51705345749708</v>
+        <v>84.51705345749707</v>
       </c>
       <c r="P23" t="n">
-        <v>72.13334975483468</v>
+        <v>72.13334975483467</v>
       </c>
       <c r="Q23" t="n">
-        <v>54.16914159882062</v>
+        <v>54.16914159882061</v>
       </c>
       <c r="R23" t="n">
-        <v>31.50978542632373</v>
+        <v>31.50978542632372</v>
       </c>
       <c r="S23" t="n">
         <v>11.43062878478661</v>
@@ -32783,7 +32783,7 @@
         <v>2.592077475566878</v>
       </c>
       <c r="I24" t="n">
-        <v>9.240603171298815</v>
+        <v>9.240603171298813</v>
       </c>
       <c r="J24" t="n">
         <v>25.35692139018443</v>
@@ -32792,16 +32792,16 @@
         <v>43.33901744684184</v>
       </c>
       <c r="L24" t="n">
-        <v>58.27465732422265</v>
+        <v>58.27465732422264</v>
       </c>
       <c r="M24" t="n">
         <v>68.00377645935444</v>
       </c>
       <c r="N24" t="n">
-        <v>69.80363407068133</v>
+        <v>69.80363407068131</v>
       </c>
       <c r="O24" t="n">
-        <v>63.85668792782761</v>
+        <v>63.8566879278276</v>
       </c>
       <c r="P24" t="n">
         <v>51.25062176713475</v>
@@ -32813,7 +32813,7 @@
         <v>16.66369152775873</v>
       </c>
       <c r="S24" t="n">
-        <v>4.985217124898147</v>
+        <v>4.985217124898146</v>
       </c>
       <c r="T24" t="n">
         <v>1.081798001837402</v>
@@ -32859,10 +32859,10 @@
         <v>0.2250087354648515</v>
       </c>
       <c r="H25" t="n">
-        <v>2.000532211678409</v>
+        <v>2.000532211678408</v>
       </c>
       <c r="I25" t="n">
-        <v>6.766626335615719</v>
+        <v>6.766626335615718</v>
       </c>
       <c r="J25" t="n">
         <v>15.908117597365</v>
@@ -32871,7 +32871,7 @@
         <v>26.1419239930982</v>
       </c>
       <c r="L25" t="n">
-        <v>33.45266236174712</v>
+        <v>33.45266236174711</v>
       </c>
       <c r="M25" t="n">
         <v>35.27114205109486</v>
@@ -32880,10 +32880,10 @@
         <v>34.43247312799862</v>
       </c>
       <c r="O25" t="n">
-        <v>31.80396199097739</v>
+        <v>31.80396199097738</v>
       </c>
       <c r="P25" t="n">
-        <v>27.2137837874944</v>
+        <v>27.21378378749439</v>
       </c>
       <c r="Q25" t="n">
         <v>18.84141329424316</v>
@@ -32895,7 +32895,7 @@
         <v>3.921288598964729</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9614009606225472</v>
+        <v>0.9614009606225471</v>
       </c>
       <c r="U25" t="n">
         <v>0.01227320375262828</v>
@@ -32938,7 +32938,7 @@
         <v>0.5016183778293626</v>
       </c>
       <c r="H26" t="n">
-        <v>5.137199211944961</v>
+        <v>5.13719921194496</v>
       </c>
       <c r="I26" t="n">
         <v>19.33864251126652</v>
@@ -32950,25 +32950,25 @@
         <v>63.80773872881183</v>
       </c>
       <c r="L26" t="n">
-        <v>79.15914215930721</v>
+        <v>79.15914215930719</v>
       </c>
       <c r="M26" t="n">
-        <v>88.07979798603013</v>
+        <v>88.07979798603012</v>
       </c>
       <c r="N26" t="n">
         <v>89.50502120203781</v>
       </c>
       <c r="O26" t="n">
-        <v>84.51705345749708</v>
+        <v>84.51705345749707</v>
       </c>
       <c r="P26" t="n">
-        <v>72.13334975483468</v>
+        <v>72.13334975483467</v>
       </c>
       <c r="Q26" t="n">
-        <v>54.16914159882062</v>
+        <v>54.16914159882061</v>
       </c>
       <c r="R26" t="n">
-        <v>31.50978542632373</v>
+        <v>31.50978542632372</v>
       </c>
       <c r="S26" t="n">
         <v>11.43062878478661</v>
@@ -33020,7 +33020,7 @@
         <v>2.592077475566878</v>
       </c>
       <c r="I27" t="n">
-        <v>9.240603171298815</v>
+        <v>9.240603171298813</v>
       </c>
       <c r="J27" t="n">
         <v>25.35692139018443</v>
@@ -33029,16 +33029,16 @@
         <v>43.33901744684184</v>
       </c>
       <c r="L27" t="n">
-        <v>58.27465732422265</v>
+        <v>58.27465732422264</v>
       </c>
       <c r="M27" t="n">
         <v>68.00377645935444</v>
       </c>
       <c r="N27" t="n">
-        <v>69.80363407068133</v>
+        <v>69.80363407068131</v>
       </c>
       <c r="O27" t="n">
-        <v>63.85668792782761</v>
+        <v>63.8566879278276</v>
       </c>
       <c r="P27" t="n">
         <v>51.25062176713475</v>
@@ -33050,7 +33050,7 @@
         <v>16.66369152775873</v>
       </c>
       <c r="S27" t="n">
-        <v>4.985217124898147</v>
+        <v>4.985217124898146</v>
       </c>
       <c r="T27" t="n">
         <v>1.081798001837402</v>
@@ -33096,10 +33096,10 @@
         <v>0.2250087354648515</v>
       </c>
       <c r="H28" t="n">
-        <v>2.000532211678409</v>
+        <v>2.000532211678408</v>
       </c>
       <c r="I28" t="n">
-        <v>6.766626335615719</v>
+        <v>6.766626335615718</v>
       </c>
       <c r="J28" t="n">
         <v>15.908117597365</v>
@@ -33108,7 +33108,7 @@
         <v>26.1419239930982</v>
       </c>
       <c r="L28" t="n">
-        <v>33.45266236174712</v>
+        <v>33.45266236174711</v>
       </c>
       <c r="M28" t="n">
         <v>35.27114205109486</v>
@@ -33117,10 +33117,10 @@
         <v>34.43247312799862</v>
       </c>
       <c r="O28" t="n">
-        <v>31.80396199097739</v>
+        <v>31.80396199097738</v>
       </c>
       <c r="P28" t="n">
-        <v>27.2137837874944</v>
+        <v>27.21378378749439</v>
       </c>
       <c r="Q28" t="n">
         <v>18.84141329424316</v>
@@ -33132,7 +33132,7 @@
         <v>3.921288598964729</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9614009606225472</v>
+        <v>0.9614009606225471</v>
       </c>
       <c r="U28" t="n">
         <v>0.01227320375262828</v>
@@ -33175,7 +33175,7 @@
         <v>0.5016183778293626</v>
       </c>
       <c r="H29" t="n">
-        <v>5.137199211944961</v>
+        <v>5.13719921194496</v>
       </c>
       <c r="I29" t="n">
         <v>19.33864251126652</v>
@@ -33187,25 +33187,25 @@
         <v>63.80773872881183</v>
       </c>
       <c r="L29" t="n">
-        <v>79.15914215930721</v>
+        <v>79.15914215930719</v>
       </c>
       <c r="M29" t="n">
-        <v>88.07979798603013</v>
+        <v>88.07979798603012</v>
       </c>
       <c r="N29" t="n">
         <v>89.50502120203781</v>
       </c>
       <c r="O29" t="n">
-        <v>84.51705345749708</v>
+        <v>84.51705345749707</v>
       </c>
       <c r="P29" t="n">
-        <v>72.13334975483468</v>
+        <v>72.13334975483467</v>
       </c>
       <c r="Q29" t="n">
-        <v>54.16914159882062</v>
+        <v>54.16914159882061</v>
       </c>
       <c r="R29" t="n">
-        <v>31.50978542632373</v>
+        <v>31.50978542632372</v>
       </c>
       <c r="S29" t="n">
         <v>11.43062878478661</v>
@@ -33257,7 +33257,7 @@
         <v>2.592077475566878</v>
       </c>
       <c r="I30" t="n">
-        <v>9.240603171298815</v>
+        <v>9.240603171298813</v>
       </c>
       <c r="J30" t="n">
         <v>25.35692139018443</v>
@@ -33266,16 +33266,16 @@
         <v>43.33901744684184</v>
       </c>
       <c r="L30" t="n">
-        <v>58.27465732422265</v>
+        <v>58.27465732422264</v>
       </c>
       <c r="M30" t="n">
         <v>68.00377645935444</v>
       </c>
       <c r="N30" t="n">
-        <v>69.80363407068133</v>
+        <v>69.80363407068131</v>
       </c>
       <c r="O30" t="n">
-        <v>63.85668792782761</v>
+        <v>63.8566879278276</v>
       </c>
       <c r="P30" t="n">
         <v>51.25062176713475</v>
@@ -33287,7 +33287,7 @@
         <v>16.66369152775873</v>
       </c>
       <c r="S30" t="n">
-        <v>4.985217124898147</v>
+        <v>4.985217124898146</v>
       </c>
       <c r="T30" t="n">
         <v>1.081798001837402</v>
@@ -33333,10 +33333,10 @@
         <v>0.2250087354648515</v>
       </c>
       <c r="H31" t="n">
-        <v>2.000532211678409</v>
+        <v>2.000532211678408</v>
       </c>
       <c r="I31" t="n">
-        <v>6.766626335615719</v>
+        <v>6.766626335615718</v>
       </c>
       <c r="J31" t="n">
         <v>15.908117597365</v>
@@ -33345,7 +33345,7 @@
         <v>26.1419239930982</v>
       </c>
       <c r="L31" t="n">
-        <v>33.45266236174712</v>
+        <v>33.45266236174711</v>
       </c>
       <c r="M31" t="n">
         <v>35.27114205109486</v>
@@ -33354,10 +33354,10 @@
         <v>34.43247312799862</v>
       </c>
       <c r="O31" t="n">
-        <v>31.80396199097739</v>
+        <v>31.80396199097738</v>
       </c>
       <c r="P31" t="n">
-        <v>27.2137837874944</v>
+        <v>27.21378378749439</v>
       </c>
       <c r="Q31" t="n">
         <v>18.84141329424316</v>
@@ -33369,7 +33369,7 @@
         <v>3.921288598964729</v>
       </c>
       <c r="T31" t="n">
-        <v>0.9614009606225472</v>
+        <v>0.9614009606225471</v>
       </c>
       <c r="U31" t="n">
         <v>0.01227320375262828</v>
@@ -33412,7 +33412,7 @@
         <v>0.5016183778293626</v>
       </c>
       <c r="H32" t="n">
-        <v>5.137199211944961</v>
+        <v>5.13719921194496</v>
       </c>
       <c r="I32" t="n">
         <v>19.33864251126652</v>
@@ -33424,25 +33424,25 @@
         <v>63.80773872881183</v>
       </c>
       <c r="L32" t="n">
-        <v>79.15914215930721</v>
+        <v>79.15914215930719</v>
       </c>
       <c r="M32" t="n">
-        <v>88.07979798603013</v>
+        <v>88.07979798603012</v>
       </c>
       <c r="N32" t="n">
         <v>89.50502120203781</v>
       </c>
       <c r="O32" t="n">
-        <v>84.51705345749708</v>
+        <v>84.51705345749707</v>
       </c>
       <c r="P32" t="n">
-        <v>72.13334975483468</v>
+        <v>72.13334975483467</v>
       </c>
       <c r="Q32" t="n">
-        <v>54.16914159882062</v>
+        <v>54.16914159882061</v>
       </c>
       <c r="R32" t="n">
-        <v>31.50978542632373</v>
+        <v>31.50978542632372</v>
       </c>
       <c r="S32" t="n">
         <v>11.43062878478661</v>
@@ -33494,7 +33494,7 @@
         <v>2.592077475566878</v>
       </c>
       <c r="I33" t="n">
-        <v>9.240603171298815</v>
+        <v>9.240603171298813</v>
       </c>
       <c r="J33" t="n">
         <v>25.35692139018443</v>
@@ -33503,16 +33503,16 @@
         <v>43.33901744684184</v>
       </c>
       <c r="L33" t="n">
-        <v>58.27465732422265</v>
+        <v>58.27465732422264</v>
       </c>
       <c r="M33" t="n">
         <v>68.00377645935444</v>
       </c>
       <c r="N33" t="n">
-        <v>69.80363407068133</v>
+        <v>69.80363407068131</v>
       </c>
       <c r="O33" t="n">
-        <v>63.85668792782761</v>
+        <v>63.8566879278276</v>
       </c>
       <c r="P33" t="n">
         <v>51.25062176713475</v>
@@ -33524,7 +33524,7 @@
         <v>16.66369152775873</v>
       </c>
       <c r="S33" t="n">
-        <v>4.985217124898147</v>
+        <v>4.985217124898146</v>
       </c>
       <c r="T33" t="n">
         <v>1.081798001837402</v>
@@ -33570,10 +33570,10 @@
         <v>0.2250087354648515</v>
       </c>
       <c r="H34" t="n">
-        <v>2.000532211678409</v>
+        <v>2.000532211678408</v>
       </c>
       <c r="I34" t="n">
-        <v>6.766626335615719</v>
+        <v>6.766626335615718</v>
       </c>
       <c r="J34" t="n">
         <v>15.908117597365</v>
@@ -33582,7 +33582,7 @@
         <v>26.1419239930982</v>
       </c>
       <c r="L34" t="n">
-        <v>33.45266236174712</v>
+        <v>33.45266236174711</v>
       </c>
       <c r="M34" t="n">
         <v>35.27114205109486</v>
@@ -33591,10 +33591,10 @@
         <v>34.43247312799862</v>
       </c>
       <c r="O34" t="n">
-        <v>31.80396199097739</v>
+        <v>31.80396199097738</v>
       </c>
       <c r="P34" t="n">
-        <v>27.2137837874944</v>
+        <v>27.21378378749439</v>
       </c>
       <c r="Q34" t="n">
         <v>18.84141329424316</v>
@@ -33606,7 +33606,7 @@
         <v>3.921288598964729</v>
       </c>
       <c r="T34" t="n">
-        <v>0.9614009606225472</v>
+        <v>0.9614009606225471</v>
       </c>
       <c r="U34" t="n">
         <v>0.01227320375262828</v>
@@ -33649,7 +33649,7 @@
         <v>0.5016183778293626</v>
       </c>
       <c r="H35" t="n">
-        <v>5.137199211944961</v>
+        <v>5.13719921194496</v>
       </c>
       <c r="I35" t="n">
         <v>19.33864251126652</v>
@@ -33661,25 +33661,25 @@
         <v>63.80773872881183</v>
       </c>
       <c r="L35" t="n">
-        <v>79.15914215930721</v>
+        <v>79.15914215930719</v>
       </c>
       <c r="M35" t="n">
-        <v>88.07979798603013</v>
+        <v>88.07979798603012</v>
       </c>
       <c r="N35" t="n">
         <v>89.50502120203781</v>
       </c>
       <c r="O35" t="n">
-        <v>84.51705345749708</v>
+        <v>84.51705345749707</v>
       </c>
       <c r="P35" t="n">
-        <v>72.13334975483468</v>
+        <v>72.13334975483467</v>
       </c>
       <c r="Q35" t="n">
-        <v>54.16914159882062</v>
+        <v>54.16914159882061</v>
       </c>
       <c r="R35" t="n">
-        <v>31.50978542632373</v>
+        <v>31.50978542632372</v>
       </c>
       <c r="S35" t="n">
         <v>11.43062878478661</v>
@@ -33731,7 +33731,7 @@
         <v>2.592077475566878</v>
       </c>
       <c r="I36" t="n">
-        <v>9.240603171298815</v>
+        <v>9.240603171298813</v>
       </c>
       <c r="J36" t="n">
         <v>25.35692139018443</v>
@@ -33740,16 +33740,16 @@
         <v>43.33901744684184</v>
       </c>
       <c r="L36" t="n">
-        <v>58.27465732422265</v>
+        <v>58.27465732422264</v>
       </c>
       <c r="M36" t="n">
         <v>68.00377645935444</v>
       </c>
       <c r="N36" t="n">
-        <v>69.80363407068133</v>
+        <v>69.80363407068131</v>
       </c>
       <c r="O36" t="n">
-        <v>63.85668792782761</v>
+        <v>63.8566879278276</v>
       </c>
       <c r="P36" t="n">
         <v>51.25062176713475</v>
@@ -33761,7 +33761,7 @@
         <v>16.66369152775873</v>
       </c>
       <c r="S36" t="n">
-        <v>4.985217124898147</v>
+        <v>4.985217124898146</v>
       </c>
       <c r="T36" t="n">
         <v>1.081798001837402</v>
@@ -33807,10 +33807,10 @@
         <v>0.2250087354648515</v>
       </c>
       <c r="H37" t="n">
-        <v>2.000532211678409</v>
+        <v>2.000532211678408</v>
       </c>
       <c r="I37" t="n">
-        <v>6.766626335615719</v>
+        <v>6.766626335615718</v>
       </c>
       <c r="J37" t="n">
         <v>15.908117597365</v>
@@ -33819,7 +33819,7 @@
         <v>26.1419239930982</v>
       </c>
       <c r="L37" t="n">
-        <v>33.45266236174712</v>
+        <v>33.45266236174711</v>
       </c>
       <c r="M37" t="n">
         <v>35.27114205109486</v>
@@ -33828,10 +33828,10 @@
         <v>34.43247312799862</v>
       </c>
       <c r="O37" t="n">
-        <v>31.80396199097739</v>
+        <v>31.80396199097738</v>
       </c>
       <c r="P37" t="n">
-        <v>27.2137837874944</v>
+        <v>27.21378378749439</v>
       </c>
       <c r="Q37" t="n">
         <v>18.84141329424316</v>
@@ -33843,7 +33843,7 @@
         <v>3.921288598964729</v>
       </c>
       <c r="T37" t="n">
-        <v>0.9614009606225472</v>
+        <v>0.9614009606225471</v>
       </c>
       <c r="U37" t="n">
         <v>0.01227320375262828</v>
@@ -33886,7 +33886,7 @@
         <v>0.5016183778293626</v>
       </c>
       <c r="H38" t="n">
-        <v>5.137199211944961</v>
+        <v>5.13719921194496</v>
       </c>
       <c r="I38" t="n">
         <v>19.33864251126652</v>
@@ -33898,25 +33898,25 @@
         <v>63.80773872881183</v>
       </c>
       <c r="L38" t="n">
-        <v>79.15914215930721</v>
+        <v>79.15914215930719</v>
       </c>
       <c r="M38" t="n">
-        <v>88.07979798603013</v>
+        <v>88.07979798603012</v>
       </c>
       <c r="N38" t="n">
         <v>89.50502120203781</v>
       </c>
       <c r="O38" t="n">
-        <v>84.51705345749708</v>
+        <v>84.51705345749707</v>
       </c>
       <c r="P38" t="n">
-        <v>72.13334975483468</v>
+        <v>72.13334975483467</v>
       </c>
       <c r="Q38" t="n">
-        <v>54.16914159882062</v>
+        <v>54.16914159882061</v>
       </c>
       <c r="R38" t="n">
-        <v>31.50978542632373</v>
+        <v>31.50978542632372</v>
       </c>
       <c r="S38" t="n">
         <v>11.43062878478661</v>
@@ -33968,7 +33968,7 @@
         <v>2.592077475566878</v>
       </c>
       <c r="I39" t="n">
-        <v>9.240603171298815</v>
+        <v>9.240603171298813</v>
       </c>
       <c r="J39" t="n">
         <v>25.35692139018443</v>
@@ -33977,16 +33977,16 @@
         <v>43.33901744684184</v>
       </c>
       <c r="L39" t="n">
-        <v>58.27465732422265</v>
+        <v>58.27465732422264</v>
       </c>
       <c r="M39" t="n">
         <v>68.00377645935444</v>
       </c>
       <c r="N39" t="n">
-        <v>69.80363407068133</v>
+        <v>69.80363407068131</v>
       </c>
       <c r="O39" t="n">
-        <v>63.85668792782761</v>
+        <v>63.8566879278276</v>
       </c>
       <c r="P39" t="n">
         <v>51.25062176713475</v>
@@ -33998,7 +33998,7 @@
         <v>16.66369152775873</v>
       </c>
       <c r="S39" t="n">
-        <v>4.985217124898147</v>
+        <v>4.985217124898146</v>
       </c>
       <c r="T39" t="n">
         <v>1.081798001837402</v>
@@ -34044,10 +34044,10 @@
         <v>0.2250087354648515</v>
       </c>
       <c r="H40" t="n">
-        <v>2.000532211678409</v>
+        <v>2.000532211678408</v>
       </c>
       <c r="I40" t="n">
-        <v>6.766626335615719</v>
+        <v>6.766626335615718</v>
       </c>
       <c r="J40" t="n">
         <v>15.908117597365</v>
@@ -34056,7 +34056,7 @@
         <v>26.1419239930982</v>
       </c>
       <c r="L40" t="n">
-        <v>33.45266236174712</v>
+        <v>33.45266236174711</v>
       </c>
       <c r="M40" t="n">
         <v>35.27114205109486</v>
@@ -34065,10 +34065,10 @@
         <v>34.43247312799862</v>
       </c>
       <c r="O40" t="n">
-        <v>31.80396199097739</v>
+        <v>31.80396199097738</v>
       </c>
       <c r="P40" t="n">
-        <v>27.2137837874944</v>
+        <v>27.21378378749439</v>
       </c>
       <c r="Q40" t="n">
         <v>18.84141329424316</v>
@@ -34080,7 +34080,7 @@
         <v>3.921288598964729</v>
       </c>
       <c r="T40" t="n">
-        <v>0.9614009606225472</v>
+        <v>0.9614009606225471</v>
       </c>
       <c r="U40" t="n">
         <v>0.01227320375262828</v>
@@ -34123,7 +34123,7 @@
         <v>0.5016183778293626</v>
       </c>
       <c r="H41" t="n">
-        <v>5.137199211944961</v>
+        <v>5.13719921194496</v>
       </c>
       <c r="I41" t="n">
         <v>19.33864251126652</v>
@@ -34135,25 +34135,25 @@
         <v>63.80773872881183</v>
       </c>
       <c r="L41" t="n">
-        <v>79.15914215930721</v>
+        <v>79.15914215930719</v>
       </c>
       <c r="M41" t="n">
-        <v>88.07979798603013</v>
+        <v>88.07979798603012</v>
       </c>
       <c r="N41" t="n">
         <v>89.50502120203781</v>
       </c>
       <c r="O41" t="n">
-        <v>84.51705345749708</v>
+        <v>84.51705345749707</v>
       </c>
       <c r="P41" t="n">
-        <v>72.13334975483468</v>
+        <v>72.13334975483467</v>
       </c>
       <c r="Q41" t="n">
-        <v>54.16914159882062</v>
+        <v>54.16914159882061</v>
       </c>
       <c r="R41" t="n">
-        <v>31.50978542632373</v>
+        <v>31.50978542632372</v>
       </c>
       <c r="S41" t="n">
         <v>11.43062878478661</v>
@@ -34205,7 +34205,7 @@
         <v>2.592077475566878</v>
       </c>
       <c r="I42" t="n">
-        <v>9.240603171298815</v>
+        <v>9.240603171298813</v>
       </c>
       <c r="J42" t="n">
         <v>25.35692139018443</v>
@@ -34214,16 +34214,16 @@
         <v>43.33901744684184</v>
       </c>
       <c r="L42" t="n">
-        <v>58.27465732422265</v>
+        <v>58.27465732422264</v>
       </c>
       <c r="M42" t="n">
         <v>68.00377645935444</v>
       </c>
       <c r="N42" t="n">
-        <v>69.80363407068133</v>
+        <v>69.80363407068131</v>
       </c>
       <c r="O42" t="n">
-        <v>63.85668792782761</v>
+        <v>63.8566879278276</v>
       </c>
       <c r="P42" t="n">
         <v>51.25062176713475</v>
@@ -34235,7 +34235,7 @@
         <v>16.66369152775873</v>
       </c>
       <c r="S42" t="n">
-        <v>4.985217124898147</v>
+        <v>4.985217124898146</v>
       </c>
       <c r="T42" t="n">
         <v>1.081798001837402</v>
@@ -34281,10 +34281,10 @@
         <v>0.2250087354648515</v>
       </c>
       <c r="H43" t="n">
-        <v>2.000532211678409</v>
+        <v>2.000532211678408</v>
       </c>
       <c r="I43" t="n">
-        <v>6.766626335615719</v>
+        <v>6.766626335615718</v>
       </c>
       <c r="J43" t="n">
         <v>15.908117597365</v>
@@ -34293,7 +34293,7 @@
         <v>26.1419239930982</v>
       </c>
       <c r="L43" t="n">
-        <v>33.45266236174712</v>
+        <v>33.45266236174711</v>
       </c>
       <c r="M43" t="n">
         <v>35.27114205109486</v>
@@ -34302,10 +34302,10 @@
         <v>34.43247312799862</v>
       </c>
       <c r="O43" t="n">
-        <v>31.80396199097739</v>
+        <v>31.80396199097738</v>
       </c>
       <c r="P43" t="n">
-        <v>27.2137837874944</v>
+        <v>27.21378378749439</v>
       </c>
       <c r="Q43" t="n">
         <v>18.84141329424316</v>
@@ -34317,7 +34317,7 @@
         <v>3.921288598964729</v>
       </c>
       <c r="T43" t="n">
-        <v>0.9614009606225472</v>
+        <v>0.9614009606225471</v>
       </c>
       <c r="U43" t="n">
         <v>0.01227320375262828</v>
@@ -34360,7 +34360,7 @@
         <v>0.5016183778293626</v>
       </c>
       <c r="H44" t="n">
-        <v>5.137199211944961</v>
+        <v>5.13719921194496</v>
       </c>
       <c r="I44" t="n">
         <v>19.33864251126652</v>
@@ -34372,25 +34372,25 @@
         <v>63.80773872881183</v>
       </c>
       <c r="L44" t="n">
-        <v>79.15914215930721</v>
+        <v>79.15914215930719</v>
       </c>
       <c r="M44" t="n">
-        <v>88.07979798603013</v>
+        <v>88.07979798603012</v>
       </c>
       <c r="N44" t="n">
         <v>89.50502120203781</v>
       </c>
       <c r="O44" t="n">
-        <v>84.51705345749708</v>
+        <v>84.51705345749707</v>
       </c>
       <c r="P44" t="n">
-        <v>72.13334975483468</v>
+        <v>72.13334975483467</v>
       </c>
       <c r="Q44" t="n">
-        <v>54.16914159882062</v>
+        <v>54.16914159882061</v>
       </c>
       <c r="R44" t="n">
-        <v>31.50978542632373</v>
+        <v>31.50978542632372</v>
       </c>
       <c r="S44" t="n">
         <v>11.43062878478661</v>
@@ -34442,7 +34442,7 @@
         <v>2.592077475566878</v>
       </c>
       <c r="I45" t="n">
-        <v>9.240603171298815</v>
+        <v>9.240603171298813</v>
       </c>
       <c r="J45" t="n">
         <v>25.35692139018443</v>
@@ -34451,16 +34451,16 @@
         <v>43.33901744684184</v>
       </c>
       <c r="L45" t="n">
-        <v>58.27465732422265</v>
+        <v>58.27465732422264</v>
       </c>
       <c r="M45" t="n">
         <v>68.00377645935444</v>
       </c>
       <c r="N45" t="n">
-        <v>69.80363407068133</v>
+        <v>69.80363407068131</v>
       </c>
       <c r="O45" t="n">
-        <v>63.85668792782761</v>
+        <v>63.8566879278276</v>
       </c>
       <c r="P45" t="n">
         <v>51.25062176713475</v>
@@ -34472,7 +34472,7 @@
         <v>16.66369152775873</v>
       </c>
       <c r="S45" t="n">
-        <v>4.985217124898147</v>
+        <v>4.985217124898146</v>
       </c>
       <c r="T45" t="n">
         <v>1.081798001837402</v>
@@ -34518,10 +34518,10 @@
         <v>0.2250087354648515</v>
       </c>
       <c r="H46" t="n">
-        <v>2.000532211678409</v>
+        <v>2.000532211678408</v>
       </c>
       <c r="I46" t="n">
-        <v>6.766626335615719</v>
+        <v>6.766626335615718</v>
       </c>
       <c r="J46" t="n">
         <v>15.908117597365</v>
@@ -34530,7 +34530,7 @@
         <v>26.1419239930982</v>
       </c>
       <c r="L46" t="n">
-        <v>33.45266236174712</v>
+        <v>33.45266236174711</v>
       </c>
       <c r="M46" t="n">
         <v>35.27114205109486</v>
@@ -34539,10 +34539,10 @@
         <v>34.43247312799862</v>
       </c>
       <c r="O46" t="n">
-        <v>31.80396199097739</v>
+        <v>31.80396199097738</v>
       </c>
       <c r="P46" t="n">
-        <v>27.2137837874944</v>
+        <v>27.21378378749439</v>
       </c>
       <c r="Q46" t="n">
         <v>18.84141329424316</v>
@@ -34554,7 +34554,7 @@
         <v>3.921288598964729</v>
       </c>
       <c r="T46" t="n">
-        <v>0.9614009606225472</v>
+        <v>0.9614009606225471</v>
       </c>
       <c r="U46" t="n">
         <v>0.01227320375262828</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>30.62494344068239</v>
+        <v>30.6249434406824</v>
       </c>
       <c r="K11" t="n">
         <v>167.863300254996</v>
@@ -35489,16 +35489,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>169.9628154850615</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>290.5606228478077</v>
       </c>
       <c r="M12" t="n">
-        <v>380.423838424175</v>
+        <v>180.1232894827317</v>
       </c>
       <c r="N12" t="n">
-        <v>10.16047399767051</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="O12" t="n">
         <v>315.1227627601127</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>39.20416659260164</v>
+        <v>54.26553851340479</v>
       </c>
       <c r="K13" t="n">
-        <v>3.872432167215351</v>
+        <v>135.5890331999279</v>
       </c>
       <c r="L13" t="n">
         <v>192.7592886547758</v>
@@ -35577,13 +35577,13 @@
         <v>206.571620045648</v>
       </c>
       <c r="N13" t="n">
-        <v>210.2812465399398</v>
+        <v>195.2198746191367</v>
       </c>
       <c r="O13" t="n">
         <v>188.1056909377296</v>
       </c>
       <c r="P13" t="n">
-        <v>156.2089440851005</v>
+        <v>24.49234305238789</v>
       </c>
       <c r="Q13" t="n">
         <v>64.39597107526134</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>30.62494344068239</v>
+        <v>30.62494344068238</v>
       </c>
       <c r="K14" t="n">
         <v>167.863300254996</v>
@@ -35665,7 +35665,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q14" t="n">
-        <v>44.17844238427581</v>
+        <v>44.1784423842758</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>24.61033006392657</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>169.9628154850614</v>
@@ -35732,19 +35732,19 @@
         <v>290.5606228478076</v>
       </c>
       <c r="M15" t="n">
-        <v>380.423838424175</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="N15" t="n">
-        <v>89.90534098452453</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="O15" t="n">
-        <v>315.1227627601127</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>235.7389829927417</v>
+        <v>180.5983813263497</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>104.3551970507805</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>54.26553851340478</v>
+        <v>39.20416659260005</v>
       </c>
       <c r="K16" t="n">
-        <v>135.5890331999279</v>
+        <v>135.589033199928</v>
       </c>
       <c r="L16" t="n">
-        <v>61.04268762206326</v>
+        <v>192.7592886547759</v>
       </c>
       <c r="M16" t="n">
-        <v>206.571620045648</v>
+        <v>206.5716200456481</v>
       </c>
       <c r="N16" t="n">
-        <v>210.2812465399398</v>
+        <v>78.56464550722721</v>
       </c>
       <c r="O16" t="n">
-        <v>188.1056909377296</v>
+        <v>188.1056909377297</v>
       </c>
       <c r="P16" t="n">
         <v>156.2089440851005</v>
       </c>
       <c r="Q16" t="n">
-        <v>49.3345991544581</v>
+        <v>64.39597107526141</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>30.62494344068239</v>
+        <v>30.62494344068238</v>
       </c>
       <c r="K17" t="n">
         <v>167.863300254996</v>
@@ -35902,7 +35902,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q17" t="n">
-        <v>44.17844238427581</v>
+        <v>44.1784423842758</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -36042,10 +36042,10 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>3.872432167215347</v>
+        <v>3.872432167215344</v>
       </c>
       <c r="L19" t="n">
-        <v>61.04268762206326</v>
+        <v>61.04268762206325</v>
       </c>
       <c r="M19" t="n">
         <v>74.85501901293544</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>30.62494344068241</v>
+        <v>30.62494344068238</v>
       </c>
       <c r="K20" t="n">
         <v>167.863300254996</v>
@@ -36139,7 +36139,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q20" t="n">
-        <v>44.17844238427581</v>
+        <v>44.1784423842758</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>24.61033006392657</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>169.9628154850614</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>290.5606228478076</v>
@@ -36209,13 +36209,13 @@
         <v>380.423838424175</v>
       </c>
       <c r="N21" t="n">
-        <v>380.423838424175</v>
+        <v>180.1232894827321</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>315.1227627601127</v>
       </c>
       <c r="P21" t="n">
-        <v>155.9880512624232</v>
+        <v>235.7389829927417</v>
       </c>
       <c r="Q21" t="n">
         <v>104.3551970507805</v>
@@ -36279,10 +36279,10 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>3.872432167215347</v>
+        <v>3.872432167215344</v>
       </c>
       <c r="L22" t="n">
-        <v>61.04268762206326</v>
+        <v>61.04268762206325</v>
       </c>
       <c r="M22" t="n">
         <v>74.85501901293544</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>30.62494344068239</v>
+        <v>30.62494344068238</v>
       </c>
       <c r="K23" t="n">
         <v>167.863300254996</v>
@@ -36376,7 +36376,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q23" t="n">
-        <v>44.17844238427581</v>
+        <v>44.1784423842758</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>24.61033006392657</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>169.9628154850614</v>
       </c>
       <c r="L24" t="n">
-        <v>194.6152709571453</v>
+        <v>290.5606228478076</v>
       </c>
       <c r="M24" t="n">
-        <v>380.423838424175</v>
+        <v>380.4238384241749</v>
       </c>
       <c r="N24" t="n">
-        <v>380.423838424175</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>315.1227627601127</v>
+        <v>300.6729066938565</v>
       </c>
       <c r="P24" t="n">
         <v>235.7389829927417</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>104.3551970507805</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,10 +36516,10 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>3.872432167215347</v>
+        <v>3.872432167215344</v>
       </c>
       <c r="L25" t="n">
-        <v>61.04268762206326</v>
+        <v>61.04268762206325</v>
       </c>
       <c r="M25" t="n">
         <v>74.85501901293544</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>180.6690037191345</v>
+        <v>180.6690037191344</v>
       </c>
       <c r="K26" t="n">
         <v>317.9073605334481</v>
       </c>
       <c r="L26" t="n">
-        <v>411.0980020182225</v>
+        <v>411.0980020182224</v>
       </c>
       <c r="M26" t="n">
-        <v>457.291158530042</v>
+        <v>457.2911585300419</v>
       </c>
       <c r="N26" t="n">
-        <v>447.4829422958832</v>
+        <v>447.4829422958831</v>
       </c>
       <c r="O26" t="n">
         <v>385.2630835770078</v>
       </c>
       <c r="P26" t="n">
-        <v>312.7431224494999</v>
+        <v>312.7431224494998</v>
       </c>
       <c r="Q26" t="n">
-        <v>194.2225026627241</v>
+        <v>194.2225026627277</v>
       </c>
       <c r="R26" t="n">
-        <v>31.68472776362614</v>
+        <v>31.68472776362608</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36732,13 +36732,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1.428587260239738</v>
+        <v>1.428587260239681</v>
       </c>
       <c r="E28" t="n">
-        <v>3.610097631882923</v>
+        <v>3.610097631882866</v>
       </c>
       <c r="F28" t="n">
-        <v>4.623012255520848</v>
+        <v>4.623012255520791</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -36747,31 +36747,31 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1.360211686809528</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>72.59299775914432</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>3.872432167215347</v>
+        <v>3.872432167215344</v>
       </c>
       <c r="L28" t="n">
-        <v>61.04268762206326</v>
+        <v>142.8049861649282</v>
       </c>
       <c r="M28" t="n">
-        <v>82.66410810984549</v>
+        <v>74.85501901293544</v>
       </c>
       <c r="N28" t="n">
         <v>228.6087057856793</v>
       </c>
       <c r="O28" t="n">
-        <v>206.4331501834692</v>
+        <v>206.4331501834691</v>
       </c>
       <c r="P28" t="n">
         <v>24.49234305238788</v>
       </c>
       <c r="Q28" t="n">
-        <v>82.72343032100088</v>
+        <v>82.72343032100081</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,19 +36832,19 @@
         <v>180.6690037191344</v>
       </c>
       <c r="K29" t="n">
-        <v>317.9073605334481</v>
+        <v>317.907360533448</v>
       </c>
       <c r="L29" t="n">
-        <v>411.0980020182225</v>
+        <v>411.0980020182224</v>
       </c>
       <c r="M29" t="n">
         <v>457.2911585300419</v>
       </c>
       <c r="N29" t="n">
-        <v>447.4829422958831</v>
+        <v>447.482942295883</v>
       </c>
       <c r="O29" t="n">
-        <v>385.2630835770078</v>
+        <v>385.2630835770077</v>
       </c>
       <c r="P29" t="n">
         <v>312.7431224494998</v>
@@ -36853,7 +36853,7 @@
         <v>194.2225026627278</v>
       </c>
       <c r="R29" t="n">
-        <v>31.68472776362609</v>
+        <v>31.68472776362606</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36969,13 +36969,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1.428587260239652</v>
       </c>
       <c r="E31" t="n">
-        <v>3.610097631882866</v>
+        <v>3.610097631882837</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>4.623012255520763</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -36984,28 +36984,28 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1.360211686809471</v>
+        <v>1.360211686809442</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>153.9164924456674</v>
+        <v>3.872432167215344</v>
       </c>
       <c r="L31" t="n">
-        <v>80.1757440364279</v>
+        <v>211.0867479005153</v>
       </c>
       <c r="M31" t="n">
         <v>224.8990792913875</v>
       </c>
       <c r="N31" t="n">
-        <v>78.56464550722721</v>
+        <v>228.6087057856792</v>
       </c>
       <c r="O31" t="n">
         <v>56.38908990501706</v>
       </c>
       <c r="P31" t="n">
-        <v>174.5364033308399</v>
+        <v>37.57379995099287</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37066,22 +37066,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>180.6690037191344</v>
+        <v>180.6690037191347</v>
       </c>
       <c r="K32" t="n">
-        <v>317.9073605334481</v>
+        <v>317.907360533448</v>
       </c>
       <c r="L32" t="n">
-        <v>411.0980020182225</v>
+        <v>411.0980020182224</v>
       </c>
       <c r="M32" t="n">
         <v>457.2911585300419</v>
       </c>
       <c r="N32" t="n">
-        <v>447.4829422958823</v>
+        <v>447.482942295883</v>
       </c>
       <c r="O32" t="n">
-        <v>385.2630835770078</v>
+        <v>385.2630835770077</v>
       </c>
       <c r="P32" t="n">
         <v>312.7431224494998</v>
@@ -37090,7 +37090,7 @@
         <v>194.2225026627278</v>
       </c>
       <c r="R32" t="n">
-        <v>31.68472776362608</v>
+        <v>31.68472776362605</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37206,10 +37206,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1.428587260239681</v>
+        <v>1.428587260239652</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>3.610097631882837</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>72.59299775914427</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>3.872432167215347</v>
+        <v>153.9164924456674</v>
       </c>
       <c r="L34" t="n">
         <v>211.0867479005153</v>
       </c>
       <c r="M34" t="n">
-        <v>74.85501901293544</v>
+        <v>224.8990792913875</v>
       </c>
       <c r="N34" t="n">
-        <v>228.6087057856793</v>
+        <v>78.56464550722721</v>
       </c>
       <c r="O34" t="n">
-        <v>73.79150057614135</v>
+        <v>56.38908990501706</v>
       </c>
       <c r="P34" t="n">
         <v>24.49234305238788</v>
       </c>
       <c r="Q34" t="n">
-        <v>82.72343032100082</v>
+        <v>19.06468084093521</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>30.62494344068239</v>
+        <v>30.62494344068238</v>
       </c>
       <c r="K35" t="n">
         <v>167.863300254996</v>
@@ -37324,7 +37324,7 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q35" t="n">
-        <v>44.17844238427581</v>
+        <v>44.1784423842758</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,19 +37382,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>24.61033006392657</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>169.9628154850614</v>
       </c>
       <c r="L36" t="n">
-        <v>290.5606228478076</v>
+        <v>276.1107667815515</v>
       </c>
       <c r="M36" t="n">
         <v>380.4238384241749</v>
       </c>
       <c r="N36" t="n">
-        <v>284.4784865335124</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>315.1227627601127</v>
@@ -37403,7 +37403,7 @@
         <v>235.7389829927417</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>104.3551970507805</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>3.872432167215347</v>
+        <v>3.872432167215344</v>
       </c>
       <c r="L37" t="n">
-        <v>61.04268762206326</v>
+        <v>61.04268762206325</v>
       </c>
       <c r="M37" t="n">
         <v>74.85501901293544</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>30.62494344068239</v>
+        <v>30.62494344068238</v>
       </c>
       <c r="K38" t="n">
         <v>167.863300254996</v>
@@ -37561,10 +37561,10 @@
         <v>162.6990621710478</v>
       </c>
       <c r="Q38" t="n">
-        <v>44.17844238427581</v>
+        <v>44.1784423842758</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>9.186815169423518e-13</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>24.61033006392657</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37628,19 +37628,19 @@
         <v>290.5606228478076</v>
       </c>
       <c r="M39" t="n">
-        <v>380.4238384241749</v>
+        <v>380.4238384241751</v>
       </c>
       <c r="N39" t="n">
-        <v>380.4238384241749</v>
+        <v>380.4238384241751</v>
       </c>
       <c r="O39" t="n">
-        <v>315.1227627601127</v>
+        <v>90.21188375474337</v>
       </c>
       <c r="P39" t="n">
-        <v>139.7936311020791</v>
+        <v>235.7389829927417</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>104.3551970507805</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>3.872432167215347</v>
+        <v>3.872432167215344</v>
       </c>
       <c r="L40" t="n">
-        <v>61.04268762206326</v>
+        <v>61.04268762206325</v>
       </c>
       <c r="M40" t="n">
         <v>74.85501901293544</v>
@@ -37774,10 +37774,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>29.7627680560439</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>30.62494344068239</v>
+        <v>30.62494344068238</v>
       </c>
       <c r="K41" t="n">
         <v>167.863300254996</v>
@@ -37795,16 +37795,16 @@
         <v>235.2190232985557</v>
       </c>
       <c r="P41" t="n">
-        <v>162.6990621710478</v>
+        <v>364.4679524181809</v>
       </c>
       <c r="Q41" t="n">
-        <v>90.33330766128323</v>
+        <v>44.1784423842758</v>
       </c>
       <c r="R41" t="n">
-        <v>102.5406826003573</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>23.31057431372457</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -37865,7 +37865,7 @@
         <v>290.5606228478076</v>
       </c>
       <c r="M42" t="n">
-        <v>391.5748062873361</v>
+        <v>278.9041033888575</v>
       </c>
       <c r="N42" t="n">
         <v>417.8042963309015</v>
@@ -37874,7 +37874,7 @@
         <v>315.1227627601127</v>
       </c>
       <c r="P42" t="n">
-        <v>123.068280094263</v>
+        <v>235.7389829927417</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>3.872432167215347</v>
+        <v>3.872432167215344</v>
       </c>
       <c r="L43" t="n">
-        <v>61.04268762206326</v>
+        <v>61.04268762206325</v>
       </c>
       <c r="M43" t="n">
         <v>74.85501901293544</v>
@@ -38011,10 +38011,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>29.76276805604393</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>30.62494344068239</v>
+        <v>30.62494344068238</v>
       </c>
       <c r="K44" t="n">
         <v>167.863300254996</v>
@@ -38032,16 +38032,16 @@
         <v>235.2190232985557</v>
       </c>
       <c r="P44" t="n">
-        <v>162.6990621710478</v>
+        <v>238.6166955040989</v>
       </c>
       <c r="Q44" t="n">
-        <v>90.33330766128323</v>
+        <v>44.1784423842758</v>
       </c>
       <c r="R44" t="n">
-        <v>102.5406826003574</v>
+        <v>102.5406826003573</v>
       </c>
       <c r="S44" t="n">
-        <v>23.31057431372459</v>
+        <v>23.31057431372453</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -38096,16 +38096,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>169.9628154850614</v>
       </c>
       <c r="L45" t="n">
-        <v>290.5606228478076</v>
+        <v>73.53472289854858</v>
       </c>
       <c r="M45" t="n">
         <v>391.5748062873361</v>
       </c>
       <c r="N45" t="n">
-        <v>370.741211866704</v>
+        <v>417.8042963309015</v>
       </c>
       <c r="O45" t="n">
         <v>315.1227627601127</v>
@@ -38175,10 +38175,10 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>3.872432167215347</v>
+        <v>3.872432167215344</v>
       </c>
       <c r="L46" t="n">
-        <v>61.04268762206326</v>
+        <v>61.04268762206325</v>
       </c>
       <c r="M46" t="n">
         <v>74.85501901293544</v>
